--- a/最小値とランクの相関.xlsx
+++ b/最小値とランクの相関.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanawayuki/Documents/SAEA_B4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AAE6C0-E77F-E344-93D3-D3CDEB7128DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96A13C1-C80F-1D4D-A8BE-5753CA7C259D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="1" xr2:uid="{636FA27B-60BF-D049-9CB1-3DDDB0DCED5C}"/>
+    <workbookView xWindow="520" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="1" xr2:uid="{636FA27B-60BF-D049-9CB1-3DDDB0DCED5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -449,7 +449,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -485,26 +485,26 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>3602700</v>
+        <v>326020</v>
       </c>
       <c r="C2" s="1">
-        <v>1294900</v>
+        <v>111260</v>
       </c>
       <c r="D2" s="1">
-        <v>746230</v>
-      </c>
-      <c r="E2" s="1">
-        <v>3311000</v>
+        <v>314720</v>
+      </c>
+      <c r="E2">
+        <v>9776.1</v>
       </c>
       <c r="F2" s="1">
-        <v>861230</v>
+        <v>114930</v>
       </c>
       <c r="G2">
-        <v>74034</v>
+        <v>16480</v>
       </c>
       <c r="I2">
         <f>CORREL($B$1:$G$1,B2:G2)</f>
-        <v>-0.60072764603614481</v>
+        <v>-0.70196176456604253</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -512,26 +512,26 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18453</v>
+        <v>21730</v>
       </c>
       <c r="C3">
-        <v>22599</v>
+        <v>20353</v>
       </c>
       <c r="D3">
-        <v>21086</v>
+        <v>22538</v>
       </c>
       <c r="E3">
-        <v>22325</v>
+        <v>19232</v>
       </c>
       <c r="F3">
-        <v>21764</v>
+        <v>23553</v>
       </c>
       <c r="G3">
-        <v>23607</v>
+        <v>24115</v>
       </c>
       <c r="I3">
         <f>CORREL($B$1:$G$1,B3:G3)</f>
-        <v>0.73828414489159999</v>
+        <v>0.51930437114191974</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -539,26 +539,26 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1458.1</v>
+        <v>1027.4000000000001</v>
       </c>
       <c r="C4">
-        <v>1351.6</v>
+        <v>760.47</v>
       </c>
       <c r="D4">
-        <v>1093.8</v>
+        <v>611.66999999999996</v>
       </c>
       <c r="E4">
-        <v>1070.9000000000001</v>
+        <v>623.29</v>
       </c>
       <c r="F4">
-        <v>956.49</v>
+        <v>606.35</v>
       </c>
       <c r="G4">
-        <v>850.54</v>
+        <v>548.38</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I3:I31" si="0">CORREL($B$1:$G$1,B4:G4)</f>
-        <v>-0.97710918507159839</v>
+        <f t="shared" ref="I4:I31" si="0">CORREL($B$1:$G$1,B4:G4)</f>
+        <v>-0.86061401079535771</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -566,26 +566,26 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>803.23</v>
+        <v>802.54</v>
       </c>
       <c r="C5">
-        <v>803.08</v>
+        <v>802.65</v>
       </c>
       <c r="D5">
-        <v>803.09</v>
+        <v>802.49</v>
       </c>
       <c r="E5">
-        <v>802.97</v>
+        <v>802.9</v>
       </c>
       <c r="F5">
-        <v>803.43</v>
+        <v>802.57</v>
       </c>
       <c r="G5">
-        <v>803.27</v>
+        <v>802.99</v>
       </c>
       <c r="I5">
         <f>CORREL($B$1:$G$1,B5:G5)</f>
-        <v>0.36720389203096143</v>
+        <v>0.62731361855524503</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -593,26 +593,26 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1624.8</v>
+        <v>1619.9</v>
       </c>
       <c r="C6">
-        <v>1625.2</v>
+        <v>1618.8</v>
       </c>
       <c r="D6">
-        <v>1623.6</v>
+        <v>1618.8</v>
       </c>
       <c r="E6">
-        <v>1623.1</v>
+        <v>1618.7</v>
       </c>
       <c r="F6">
-        <v>1622.9</v>
+        <v>1618</v>
       </c>
       <c r="G6">
-        <v>1622.6</v>
+        <v>1618</v>
       </c>
       <c r="I6">
         <f>CORREL($B$1:$G$1,B6:G6)</f>
-        <v>-0.92277248242778187</v>
+        <v>-0.91820005167423968</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -620,26 +620,26 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1906.5</v>
+        <v>1838.8</v>
       </c>
       <c r="C7">
-        <v>1886.5</v>
+        <v>1789.1</v>
       </c>
       <c r="D7">
-        <v>1894.5</v>
+        <v>1764.4</v>
       </c>
       <c r="E7">
-        <v>1883.7</v>
+        <v>1810.3</v>
       </c>
       <c r="F7">
-        <v>1861.1</v>
+        <v>1799.8</v>
       </c>
       <c r="G7">
-        <v>1888.5</v>
+        <v>1718.2</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>-0.63201308206582696</v>
+        <v>-0.67514540339763207</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -647,26 +647,26 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>1401600000</v>
+        <v>546800000</v>
       </c>
       <c r="C10" s="1">
-        <v>968180000</v>
+        <v>442080000</v>
       </c>
       <c r="D10" s="1">
-        <v>790720000</v>
+        <v>274390000</v>
       </c>
       <c r="E10" s="1">
-        <v>510290000</v>
+        <v>165780000</v>
       </c>
       <c r="F10" s="1">
-        <v>412110000</v>
+        <v>267510000</v>
       </c>
       <c r="G10" s="1">
-        <v>330880000</v>
+        <v>156120000</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>-0.96389030942173126</v>
+        <v>-0.88823500993554405</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -674,26 +674,26 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>91998</v>
+        <v>92779</v>
       </c>
       <c r="C11">
-        <v>98310</v>
-      </c>
-      <c r="D11" s="1">
-        <v>104690</v>
+        <v>88654</v>
+      </c>
+      <c r="D11">
+        <v>94848</v>
       </c>
       <c r="E11">
-        <v>96247</v>
-      </c>
-      <c r="F11">
-        <v>97200</v>
+        <v>99036</v>
+      </c>
+      <c r="F11" s="1">
+        <v>106630</v>
       </c>
       <c r="G11" s="1">
-        <v>105600</v>
+        <v>105510</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>0.57582527626854441</v>
+        <v>0.90886542919507096</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -701,26 +701,26 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>7416.2</v>
+        <v>6537.3</v>
       </c>
       <c r="C12">
-        <v>7389.9</v>
+        <v>6085</v>
       </c>
       <c r="D12">
-        <v>7131.3</v>
+        <v>5595.3</v>
       </c>
       <c r="E12">
-        <v>7079.1</v>
+        <v>5220.6000000000004</v>
       </c>
       <c r="F12">
-        <v>6858.6</v>
+        <v>4762.8</v>
       </c>
       <c r="G12">
-        <v>6876.4</v>
+        <v>3543.6</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>-0.96457669392436174</v>
+        <v>-0.97410518973836657</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -728,26 +728,26 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>1548</v>
+        <v>1011.3</v>
       </c>
       <c r="C13">
-        <v>1238.3</v>
+        <v>888.14</v>
       </c>
       <c r="D13">
-        <v>1130.7</v>
+        <v>842.99</v>
       </c>
       <c r="E13">
-        <v>985.1</v>
+        <v>896.91</v>
       </c>
       <c r="F13">
-        <v>951.94</v>
+        <v>865.59</v>
       </c>
       <c r="G13">
-        <v>919.22</v>
+        <v>840.61</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>-0.93114256472430379</v>
+        <v>-0.73281032005957358</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -755,26 +755,26 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>1711.7</v>
+        <v>1672.2</v>
       </c>
       <c r="C14">
-        <v>1700.1</v>
+        <v>1664.6</v>
       </c>
       <c r="D14">
-        <v>1688.5</v>
+        <v>1663.1</v>
       </c>
       <c r="E14">
-        <v>1688</v>
+        <v>1655.6</v>
       </c>
       <c r="F14">
-        <v>1678.1</v>
+        <v>1655.6</v>
       </c>
       <c r="G14">
-        <v>1667.6</v>
+        <v>1656</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>-0.98349747687293076</v>
+        <v>-0.918433285655475</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -782,26 +782,26 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>2308.5</v>
+        <v>2227.3000000000002</v>
       </c>
       <c r="C15">
-        <v>2294.1999999999998</v>
+        <v>2212.1</v>
       </c>
       <c r="D15">
-        <v>2277.6999999999998</v>
+        <v>2211.4</v>
       </c>
       <c r="E15">
-        <v>2237.3000000000002</v>
+        <v>2180.1999999999998</v>
       </c>
       <c r="F15">
-        <v>2217</v>
+        <v>2151.6999999999998</v>
       </c>
       <c r="G15">
-        <v>2212.6</v>
+        <v>2142.6999999999998</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>-0.97890540384443647</v>
+        <v>-0.9721863417799782</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1144,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7DD38-EEBD-E74D-8C07-A85AE20818A3}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16:I17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1183,26 +1183,26 @@
       </c>
       <c r="C2">
         <f>_xlfn.RANK.EQ(Sheet1!C2,Sheet1!$B2:$G2,1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <f>_xlfn.RANK.EQ(Sheet1!D2,Sheet1!$B2:$G2,1)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <f>_xlfn.RANK.EQ(Sheet1!E2,Sheet1!$B2:$G2,1)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f>_xlfn.RANK.EQ(Sheet1!F2,Sheet1!$B2:$G2,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <f>_xlfn.RANK.EQ(Sheet1!G2,Sheet1!$B2:$G2,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>0.6</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1211,23 +1211,23 @@
       </c>
       <c r="B3">
         <f>_xlfn.RANK.EQ(Sheet1!B3,Sheet1!$B3:$G3,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <f>_xlfn.RANK.EQ(Sheet1!C3,Sheet1!$B3:$G3,1)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <f>_xlfn.RANK.EQ(Sheet1!D3,Sheet1!$B3:$G3,1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <f>_xlfn.RANK.EQ(Sheet1!E3,Sheet1!$B3:$G3,1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <f>_xlfn.RANK.EQ(Sheet1!F3,Sheet1!$B3:$G3,1)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <f>_xlfn.RANK.EQ(Sheet1!G3,Sheet1!$B3:$G3,1)</f>
@@ -1251,11 +1251,11 @@
       </c>
       <c r="D4">
         <f>_xlfn.RANK.EQ(Sheet1!D4,Sheet1!$B4:$G4,1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4">
         <f>_xlfn.RANK.EQ(Sheet1!E4,Sheet1!$B4:$G4,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <f>_xlfn.RANK.EQ(Sheet1!F4,Sheet1!$B4:$G4,1)</f>
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1275,30 +1275,30 @@
       </c>
       <c r="B5">
         <f>_xlfn.RANK.EQ(Sheet1!B5,Sheet1!$B5:$G5,1)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <f>_xlfn.RANK.EQ(Sheet1!C5,Sheet1!$B5:$G5,1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <f>_xlfn.RANK.EQ(Sheet1!D5,Sheet1!$B5:$G5,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <f>_xlfn.RANK.EQ(Sheet1!E5,Sheet1!$B5:$G5,1)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <f>_xlfn.RANK.EQ(Sheet1!F5,Sheet1!$B5:$G5,1)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <f>_xlfn.RANK.EQ(Sheet1!G5,Sheet1!$B5:$G5,1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>-0.2</v>
+        <v>-0.46700000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="B6">
         <f>_xlfn.RANK.EQ(Sheet1!B6,Sheet1!$B6:$G6,1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <f>_xlfn.RANK.EQ(Sheet1!C6,Sheet1!$B6:$G6,1)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <f>_xlfn.RANK.EQ(Sheet1!D6,Sheet1!$B6:$G6,1)</f>
@@ -1323,14 +1323,14 @@
       </c>
       <c r="F6">
         <f>_xlfn.RANK.EQ(Sheet1!F6,Sheet1!$B6:$G6,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <f>_xlfn.RANK.EQ(Sheet1!G6,Sheet1!$B6:$G6,1)</f>
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0.86699999999999999</v>
+        <v>0.73299999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1347,19 +1347,19 @@
       </c>
       <c r="D7">
         <f>_xlfn.RANK.EQ(Sheet1!D7,Sheet1!$B7:$G7,1)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <f>_xlfn.RANK.EQ(Sheet1!E7,Sheet1!$B7:$G7,1)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <f>_xlfn.RANK.EQ(Sheet1!F7,Sheet1!$B7:$G7,1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G7">
         <f>_xlfn.RANK.EQ(Sheet1!G7,Sheet1!$B7:$G7,1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0.46700000000000003</v>
@@ -1383,18 +1383,18 @@
       </c>
       <c r="E10">
         <f>_xlfn.RANK.EQ(Sheet1!E10,Sheet1!$B10:$G10,1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <f>_xlfn.RANK.EQ(Sheet1!F10,Sheet1!$B10:$G10,1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <f>_xlfn.RANK.EQ(Sheet1!G10,Sheet1!$B10:$G10,1)</f>
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1403,30 +1403,30 @@
       </c>
       <c r="B11">
         <f>_xlfn.RANK.EQ(Sheet1!B11,Sheet1!$B11:$G11,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <f>_xlfn.RANK.EQ(Sheet1!C11,Sheet1!$B11:$G11,1)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f>_xlfn.RANK.EQ(Sheet1!D11,Sheet1!$B11:$G11,1)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <f>_xlfn.RANK.EQ(Sheet1!E11,Sheet1!$B11:$G11,1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <f>_xlfn.RANK.EQ(Sheet1!F11,Sheet1!$B11:$G11,1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <f>_xlfn.RANK.EQ(Sheet1!G11,Sheet1!$B11:$G11,1)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>-0.46700000000000003</v>
+        <v>-0.73299999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1451,14 +1451,14 @@
       </c>
       <c r="F12">
         <f>_xlfn.RANK.EQ(Sheet1!F12,Sheet1!$B12:$G12,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12">
         <f>_xlfn.RANK.EQ(Sheet1!G12,Sheet1!$B12:$G12,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0.86699999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1471,26 +1471,26 @@
       </c>
       <c r="C13">
         <f>_xlfn.RANK.EQ(Sheet1!C13,Sheet1!$B13:$G13,1)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <f>_xlfn.RANK.EQ(Sheet1!D13,Sheet1!$B13:$G13,1)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <f>_xlfn.RANK.EQ(Sheet1!E13,Sheet1!$B13:$G13,1)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <f>_xlfn.RANK.EQ(Sheet1!F13,Sheet1!$B13:$G13,1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <f>_xlfn.RANK.EQ(Sheet1!G13,Sheet1!$B13:$G13,1)</f>
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1511,18 +1511,18 @@
       </c>
       <c r="E14">
         <f>_xlfn.RANK.EQ(Sheet1!E14,Sheet1!$B14:$G14,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <f>_xlfn.RANK.EQ(Sheet1!F14,Sheet1!$B14:$G14,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <f>_xlfn.RANK.EQ(Sheet1!G14,Sheet1!$B14:$G14,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:9">

--- a/最小値とランクの相関.xlsx
+++ b/最小値とランクの相関.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanawayuki/Documents/SAEA_B4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96A13C1-C80F-1D4D-A8BE-5753CA7C259D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708BF041-0213-6340-8292-980F2CE3618C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="500" windowWidth="14400" windowHeight="17500" activeTab="1" xr2:uid="{636FA27B-60BF-D049-9CB1-3DDDB0DCED5C}"/>
+    <workbookView xWindow="19720" yWindow="3600" windowWidth="23820" windowHeight="17500" activeTab="1" xr2:uid="{636FA27B-60BF-D049-9CB1-3DDDB0DCED5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -101,6 +101,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,11 +131,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,7 +461,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -485,26 +497,26 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>326020</v>
+        <v>4153100000</v>
       </c>
       <c r="C2" s="1">
-        <v>111260</v>
+        <v>777520000</v>
       </c>
       <c r="D2" s="1">
-        <v>314720</v>
-      </c>
-      <c r="E2">
-        <v>9776.1</v>
+        <v>52324000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2130500</v>
       </c>
       <c r="F2" s="1">
-        <v>114930</v>
+        <v>167020</v>
       </c>
       <c r="G2">
-        <v>16480</v>
+        <v>16308</v>
       </c>
       <c r="I2">
         <f>CORREL($B$1:$G$1,B2:G2)</f>
-        <v>-0.70196176456604253</v>
+        <v>-0.74711235327730308</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -512,26 +524,26 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21730</v>
+        <v>27838</v>
       </c>
       <c r="C3">
         <v>20353</v>
       </c>
       <c r="D3">
-        <v>22538</v>
+        <v>20515</v>
       </c>
       <c r="E3">
-        <v>19232</v>
+        <v>16564</v>
       </c>
       <c r="F3">
-        <v>23553</v>
+        <v>18135</v>
       </c>
       <c r="G3">
-        <v>24115</v>
+        <v>23254</v>
       </c>
       <c r="I3">
         <f>CORREL($B$1:$G$1,B3:G3)</f>
-        <v>0.51930437114191974</v>
+        <v>-0.44714082430421848</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -539,26 +551,26 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1027.4000000000001</v>
+        <v>2003.1</v>
       </c>
       <c r="C4">
-        <v>760.47</v>
+        <v>1885.5</v>
       </c>
       <c r="D4">
-        <v>611.66999999999996</v>
+        <v>1691</v>
       </c>
       <c r="E4">
-        <v>623.29</v>
+        <v>1400.5</v>
       </c>
       <c r="F4">
-        <v>606.35</v>
+        <v>695.56</v>
       </c>
       <c r="G4">
-        <v>548.38</v>
+        <v>663.54</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I31" si="0">CORREL($B$1:$G$1,B4:G4)</f>
-        <v>-0.86061401079535771</v>
+        <v>-0.96162693408034794</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -566,26 +578,26 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>802.54</v>
+        <v>2764.2</v>
       </c>
       <c r="C5">
-        <v>802.65</v>
+        <v>821.23</v>
       </c>
       <c r="D5">
-        <v>802.49</v>
+        <v>804.61</v>
       </c>
       <c r="E5">
-        <v>802.9</v>
+        <v>803.52</v>
       </c>
       <c r="F5">
-        <v>802.57</v>
+        <v>802.66</v>
       </c>
       <c r="G5">
-        <v>802.99</v>
+        <v>802.76</v>
       </c>
       <c r="I5">
         <f>CORREL($B$1:$G$1,B5:G5)</f>
-        <v>0.62731361855524503</v>
+        <v>-0.65983022777748712</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -593,26 +605,26 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1619.9</v>
+        <v>1693.5</v>
       </c>
       <c r="C6">
-        <v>1618.8</v>
+        <v>1637.9</v>
       </c>
       <c r="D6">
-        <v>1618.8</v>
+        <v>1626.5</v>
       </c>
       <c r="E6">
-        <v>1618.7</v>
+        <v>1622.1</v>
       </c>
       <c r="F6">
-        <v>1618</v>
+        <v>1620.8</v>
       </c>
       <c r="G6">
-        <v>1618</v>
+        <v>1619.3</v>
       </c>
       <c r="I6">
         <f>CORREL($B$1:$G$1,B6:G6)</f>
-        <v>-0.91820005167423968</v>
+        <v>-0.79644896243096053</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -620,26 +632,26 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1838.8</v>
+        <v>1878.7</v>
       </c>
       <c r="C7">
-        <v>1789.1</v>
+        <v>1926.5</v>
       </c>
       <c r="D7">
-        <v>1764.4</v>
+        <v>1927.4</v>
       </c>
       <c r="E7">
-        <v>1810.3</v>
+        <v>1882.4</v>
       </c>
       <c r="F7">
-        <v>1799.8</v>
+        <v>1754.3</v>
       </c>
       <c r="G7">
-        <v>1718.2</v>
+        <v>1730.2</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>-0.67514540339763207</v>
+        <v>-0.80785451518108409</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -647,53 +659,53 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>546800000</v>
+        <v>52552000000</v>
       </c>
       <c r="C10" s="1">
-        <v>442080000</v>
+        <v>24726000000</v>
       </c>
       <c r="D10" s="1">
-        <v>274390000</v>
+        <v>5804100000</v>
       </c>
       <c r="E10" s="1">
-        <v>165780000</v>
+        <v>1117700000</v>
       </c>
       <c r="F10" s="1">
-        <v>267510000</v>
+        <v>458430000</v>
       </c>
       <c r="G10" s="1">
-        <v>156120000</v>
+        <v>149630000</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>-0.88823500993554405</v>
+        <v>-0.86326116101403516</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>92779</v>
-      </c>
-      <c r="C11">
-        <v>88654</v>
-      </c>
-      <c r="D11">
-        <v>94848</v>
-      </c>
-      <c r="E11">
-        <v>99036</v>
-      </c>
-      <c r="F11" s="1">
-        <v>106630</v>
-      </c>
-      <c r="G11" s="1">
-        <v>105510</v>
+      <c r="B11" s="3">
+        <v>102240</v>
+      </c>
+      <c r="C11" s="3">
+        <v>98056</v>
+      </c>
+      <c r="D11" s="3">
+        <v>99970</v>
+      </c>
+      <c r="E11" s="3">
+        <v>100380</v>
+      </c>
+      <c r="F11" s="3">
+        <v>102070</v>
+      </c>
+      <c r="G11" s="3">
+        <v>99773</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>0.90886542919507096</v>
+        <v>3.9961399779366007E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -701,53 +713,53 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>6537.3</v>
+        <v>8216</v>
       </c>
       <c r="C12">
-        <v>6085</v>
+        <v>8000.9</v>
       </c>
       <c r="D12">
-        <v>5595.3</v>
+        <v>7566</v>
       </c>
       <c r="E12">
-        <v>5220.6000000000004</v>
+        <v>7318.7</v>
       </c>
       <c r="F12">
-        <v>4762.8</v>
+        <v>6269.3</v>
       </c>
       <c r="G12">
-        <v>3543.6</v>
+        <v>4509.1000000000004</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>-0.97410518973836657</v>
+        <v>-0.92306891710517647</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
-        <v>1011.3</v>
-      </c>
-      <c r="C13">
-        <v>888.14</v>
+      <c r="B13" s="2">
+        <v>14976000</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1150300</v>
       </c>
       <c r="D13">
-        <v>842.99</v>
+        <v>19383</v>
       </c>
       <c r="E13">
-        <v>896.91</v>
+        <v>1240</v>
       </c>
       <c r="F13">
-        <v>865.59</v>
+        <v>865.65</v>
       </c>
       <c r="G13">
-        <v>840.61</v>
+        <v>840.2</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>-0.73281032005957358</v>
+        <v>-0.69381391302085194</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -755,26 +767,26 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>1672.2</v>
+        <v>2365.8000000000002</v>
       </c>
       <c r="C14">
-        <v>1664.6</v>
+        <v>1959.4</v>
       </c>
       <c r="D14">
-        <v>1663.1</v>
+        <v>1756.7</v>
       </c>
       <c r="E14">
-        <v>1655.6</v>
+        <v>1691.8</v>
       </c>
       <c r="F14">
-        <v>1655.6</v>
+        <v>1664.5</v>
       </c>
       <c r="G14">
-        <v>1656</v>
+        <v>1651.3</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>-0.918433285655475</v>
+        <v>-0.8703807676785198</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -782,26 +794,26 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>2227.3000000000002</v>
+        <v>3029.6</v>
       </c>
       <c r="C15">
-        <v>2212.1</v>
+        <v>2771.6</v>
       </c>
       <c r="D15">
-        <v>2211.4</v>
+        <v>2500.8000000000002</v>
       </c>
       <c r="E15">
-        <v>2180.1999999999998</v>
+        <v>2322.1999999999998</v>
       </c>
       <c r="F15">
-        <v>2151.6999999999998</v>
+        <v>2203.5</v>
       </c>
       <c r="G15">
-        <v>2142.6999999999998</v>
+        <v>2160</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>-0.9721863417799782</v>
+        <v>-0.97010246909856879</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1144,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7DD38-EEBD-E74D-8C07-A85AE20818A3}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1183,26 +1195,26 @@
       </c>
       <c r="C2">
         <f>_xlfn.RANK.EQ(Sheet1!C2,Sheet1!$B2:$G2,1)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <f>_xlfn.RANK.EQ(Sheet1!D2,Sheet1!$B2:$G2,1)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <f>_xlfn.RANK.EQ(Sheet1!E2,Sheet1!$B2:$G2,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <f>_xlfn.RANK.EQ(Sheet1!F2,Sheet1!$B2:$G2,1)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <f>_xlfn.RANK.EQ(Sheet1!G2,Sheet1!$B2:$G2,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0.46700000000000003</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1211,11 +1223,11 @@
       </c>
       <c r="B3">
         <f>_xlfn.RANK.EQ(Sheet1!B3,Sheet1!$B3:$G3,1)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <f>_xlfn.RANK.EQ(Sheet1!C3,Sheet1!$B3:$G3,1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <f>_xlfn.RANK.EQ(Sheet1!D3,Sheet1!$B3:$G3,1)</f>
@@ -1227,14 +1239,14 @@
       </c>
       <c r="F3">
         <f>_xlfn.RANK.EQ(Sheet1!F3,Sheet1!$B3:$G3,1)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <f>_xlfn.RANK.EQ(Sheet1!G3,Sheet1!$B3:$G3,1)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3">
-        <v>-0.46700000000000003</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1251,11 +1263,11 @@
       </c>
       <c r="D4">
         <f>_xlfn.RANK.EQ(Sheet1!D4,Sheet1!$B4:$G4,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4">
         <f>_xlfn.RANK.EQ(Sheet1!E4,Sheet1!$B4:$G4,1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <f>_xlfn.RANK.EQ(Sheet1!F4,Sheet1!$B4:$G4,1)</f>
@@ -1266,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="I4">
-        <v>0.86699999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1275,30 +1287,30 @@
       </c>
       <c r="B5">
         <f>_xlfn.RANK.EQ(Sheet1!B5,Sheet1!$B5:$G5,1)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <f>_xlfn.RANK.EQ(Sheet1!C5,Sheet1!$B5:$G5,1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <f>_xlfn.RANK.EQ(Sheet1!D5,Sheet1!$B5:$G5,1)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <f>_xlfn.RANK.EQ(Sheet1!E5,Sheet1!$B5:$G5,1)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <f>_xlfn.RANK.EQ(Sheet1!F5,Sheet1!$B5:$G5,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <f>_xlfn.RANK.EQ(Sheet1!G5,Sheet1!$B5:$G5,1)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>-0.46700000000000003</v>
+        <v>0.86699999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1311,7 +1323,7 @@
       </c>
       <c r="C6">
         <f>_xlfn.RANK.EQ(Sheet1!C6,Sheet1!$B6:$G6,1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <f>_xlfn.RANK.EQ(Sheet1!D6,Sheet1!$B6:$G6,1)</f>
@@ -1323,14 +1335,14 @@
       </c>
       <c r="F6">
         <f>_xlfn.RANK.EQ(Sheet1!F6,Sheet1!$B6:$G6,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <f>_xlfn.RANK.EQ(Sheet1!G6,Sheet1!$B6:$G6,1)</f>
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0.73299999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1339,23 +1351,23 @@
       </c>
       <c r="B7">
         <f>_xlfn.RANK.EQ(Sheet1!B7,Sheet1!$B7:$G7,1)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <f>_xlfn.RANK.EQ(Sheet1!C7,Sheet1!$B7:$G7,1)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <f>_xlfn.RANK.EQ(Sheet1!D7,Sheet1!$B7:$G7,1)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <f>_xlfn.RANK.EQ(Sheet1!E7,Sheet1!$B7:$G7,1)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F7">
         <f>_xlfn.RANK.EQ(Sheet1!F7,Sheet1!$B7:$G7,1)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <f>_xlfn.RANK.EQ(Sheet1!G7,Sheet1!$B7:$G7,1)</f>
@@ -1383,18 +1395,18 @@
       </c>
       <c r="E10">
         <f>_xlfn.RANK.EQ(Sheet1!E10,Sheet1!$B10:$G10,1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <f>_xlfn.RANK.EQ(Sheet1!F10,Sheet1!$B10:$G10,1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10">
         <f>_xlfn.RANK.EQ(Sheet1!G10,Sheet1!$B10:$G10,1)</f>
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.86699999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1403,7 +1415,7 @@
       </c>
       <c r="B11">
         <f>_xlfn.RANK.EQ(Sheet1!B11,Sheet1!$B11:$G11,1)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <f>_xlfn.RANK.EQ(Sheet1!C11,Sheet1!$B11:$G11,1)</f>
@@ -1419,14 +1431,14 @@
       </c>
       <c r="F11">
         <f>_xlfn.RANK.EQ(Sheet1!F11,Sheet1!$B11:$G11,1)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11">
         <f>_xlfn.RANK.EQ(Sheet1!G11,Sheet1!$B11:$G11,1)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>-0.73299999999999998</v>
+        <v>6.7000000000000002E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1471,26 +1483,26 @@
       </c>
       <c r="C13">
         <f>_xlfn.RANK.EQ(Sheet1!C13,Sheet1!$B13:$G13,1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <f>_xlfn.RANK.EQ(Sheet1!D13,Sheet1!$B13:$G13,1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13">
         <f>_xlfn.RANK.EQ(Sheet1!E13,Sheet1!$B13:$G13,1)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <f>_xlfn.RANK.EQ(Sheet1!F13,Sheet1!$B13:$G13,1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <f>_xlfn.RANK.EQ(Sheet1!G13,Sheet1!$B13:$G13,1)</f>
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1511,18 +1523,18 @@
       </c>
       <c r="E14">
         <f>_xlfn.RANK.EQ(Sheet1!E14,Sheet1!$B14:$G14,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <f>_xlfn.RANK.EQ(Sheet1!F14,Sheet1!$B14:$G14,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
         <f>_xlfn.RANK.EQ(Sheet1!G14,Sheet1!$B14:$G14,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">

--- a/最小値とランクの相関.xlsx
+++ b/最小値とランクの相関.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanawayuki/Documents/SAEA_B4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708BF041-0213-6340-8292-980F2CE3618C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B9DF61-BBE6-E748-9615-BCE8BE57095C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19720" yWindow="3600" windowWidth="23820" windowHeight="17500" activeTab="1" xr2:uid="{636FA27B-60BF-D049-9CB1-3DDDB0DCED5C}"/>
+    <workbookView xWindow="54960" yWindow="2080" windowWidth="23820" windowHeight="17500" activeTab="1" xr2:uid="{636FA27B-60BF-D049-9CB1-3DDDB0DCED5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="11">
   <si>
     <t>f1-d10</t>
     <phoneticPr fontId="1"/>
@@ -79,6 +79,10 @@
     <rPh sb="0" eb="4">
       <t>ソウカn</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GB</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -458,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8396970-DA6D-AB44-9601-6D20E25EEF8B}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1144,6 +1148,336 @@
       <c r="I31">
         <f t="shared" si="0"/>
         <v>-0.99736318937642932</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5234400000</v>
+      </c>
+      <c r="C34" s="1">
+        <v>599450000</v>
+      </c>
+      <c r="D34">
+        <v>8227.2999999999993</v>
+      </c>
+      <c r="E34">
+        <v>6718.5</v>
+      </c>
+      <c r="F34">
+        <v>7162.6</v>
+      </c>
+      <c r="G34">
+        <v>7087.6</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:I47" si="1">CORREL($B$1:$G$1,B34:G34)</f>
+        <v>-0.71136126748938622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>33280</v>
+      </c>
+      <c r="C35">
+        <v>21168</v>
+      </c>
+      <c r="D35">
+        <v>16396</v>
+      </c>
+      <c r="E35">
+        <v>23248</v>
+      </c>
+      <c r="F35">
+        <v>28400</v>
+      </c>
+      <c r="G35">
+        <v>1084.5999999999999</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>-0.6318786611572238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>2248</v>
+      </c>
+      <c r="C36">
+        <v>2002.8</v>
+      </c>
+      <c r="D36">
+        <v>1713.1</v>
+      </c>
+      <c r="E36">
+        <v>430.09</v>
+      </c>
+      <c r="F36">
+        <v>407.72</v>
+      </c>
+      <c r="G36">
+        <v>400</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>-0.93049859866701856</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>5687.4</v>
+      </c>
+      <c r="C37">
+        <v>813.08</v>
+      </c>
+      <c r="D37">
+        <v>801.17</v>
+      </c>
+      <c r="E37">
+        <v>801.34</v>
+      </c>
+      <c r="F37">
+        <v>801.55</v>
+      </c>
+      <c r="G37">
+        <v>801.31</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>-0.65589367561723122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>1729</v>
+      </c>
+      <c r="C38">
+        <v>1634.4</v>
+      </c>
+      <c r="D38">
+        <v>1616.2</v>
+      </c>
+      <c r="E38">
+        <v>1615.8</v>
+      </c>
+      <c r="F38">
+        <v>1615.6</v>
+      </c>
+      <c r="G38">
+        <v>1615.5</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>-0.73631892847259406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>1905.9</v>
+      </c>
+      <c r="C39">
+        <v>1972.1</v>
+      </c>
+      <c r="D39">
+        <v>1862</v>
+      </c>
+      <c r="E39">
+        <v>1855.1</v>
+      </c>
+      <c r="F39">
+        <v>1722.3</v>
+      </c>
+      <c r="G39">
+        <v>1593.3</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>-0.90208201871425642</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>60411000000</v>
+      </c>
+      <c r="C42" s="1">
+        <v>20048000000</v>
+      </c>
+      <c r="D42" s="1">
+        <v>248340</v>
+      </c>
+      <c r="E42" s="1">
+        <v>428330</v>
+      </c>
+      <c r="F42" s="1">
+        <v>8365700</v>
+      </c>
+      <c r="G42" s="1">
+        <v>31203000</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42">
+        <f t="shared" ref="I42:I47" si="2">CORREL($B$1:$G$1,B42:G42)</f>
+        <v>-0.79378137288461759</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1">
+        <v>110140</v>
+      </c>
+      <c r="C43">
+        <v>97368</v>
+      </c>
+      <c r="D43">
+        <v>99633</v>
+      </c>
+      <c r="E43">
+        <v>89732</v>
+      </c>
+      <c r="F43">
+        <v>90454</v>
+      </c>
+      <c r="G43">
+        <v>9215.1</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="2"/>
+        <v>-0.77786948878912932</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>8377.7999999999993</v>
+      </c>
+      <c r="C44">
+        <v>7955</v>
+      </c>
+      <c r="D44">
+        <v>7711.4</v>
+      </c>
+      <c r="E44">
+        <v>690.3</v>
+      </c>
+      <c r="F44">
+        <v>720.43</v>
+      </c>
+      <c r="G44">
+        <v>602.23</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="2"/>
+        <v>-0.8970604571838241</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1">
+        <v>19842000</v>
+      </c>
+      <c r="C45" s="1">
+        <v>506280</v>
+      </c>
+      <c r="D45">
+        <v>807.4</v>
+      </c>
+      <c r="E45">
+        <v>847.72</v>
+      </c>
+      <c r="F45">
+        <v>818.57</v>
+      </c>
+      <c r="G45">
+        <v>816.68</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="2"/>
+        <v>-0.66785378896970038</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>2574.1</v>
+      </c>
+      <c r="C46">
+        <v>1898.7</v>
+      </c>
+      <c r="D46">
+        <v>1627.7</v>
+      </c>
+      <c r="E46">
+        <v>1627.9</v>
+      </c>
+      <c r="F46">
+        <v>1628.7</v>
+      </c>
+      <c r="G46">
+        <v>1631.2</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="2"/>
+        <v>-0.77803639569828531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>3152.6</v>
+      </c>
+      <c r="C47">
+        <v>2719.2</v>
+      </c>
+      <c r="D47">
+        <v>2104.6</v>
+      </c>
+      <c r="E47">
+        <v>2176.1</v>
+      </c>
+      <c r="F47">
+        <v>2090.9</v>
+      </c>
+      <c r="G47">
+        <v>2080.8000000000002</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="2"/>
+        <v>-0.85634072861495913</v>
       </c>
     </row>
   </sheetData>
@@ -1154,10 +1488,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7DD38-EEBD-E74D-8C07-A85AE20818A3}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1958,6 +2292,395 @@
         <v>1</v>
       </c>
     </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <f>_xlfn.RANK.EQ(Sheet1!B34,Sheet1!$B34:$G34,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <f>_xlfn.RANK.EQ(Sheet1!C34,Sheet1!$B34:$G34,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <f>_xlfn.RANK.EQ(Sheet1!D34,Sheet1!$B34:$G34,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <f>_xlfn.RANK.EQ(Sheet1!E34,Sheet1!$B34:$G34,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f>_xlfn.RANK.EQ(Sheet1!F34,Sheet1!$B34:$G34,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G34">
+        <f>_xlfn.RANK.EQ(Sheet1!G34,Sheet1!$B34:$G34,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <f>_xlfn.RANK.EQ(Sheet1!B35,Sheet1!$B35:$G35,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <f>_xlfn.RANK.EQ(Sheet1!C35,Sheet1!$B35:$G35,1)</f>
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <f>_xlfn.RANK.EQ(Sheet1!D35,Sheet1!$B35:$G35,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <f>_xlfn.RANK.EQ(Sheet1!E35,Sheet1!$B35:$G35,1)</f>
+        <v>4</v>
+      </c>
+      <c r="F35">
+        <f>_xlfn.RANK.EQ(Sheet1!F35,Sheet1!$B35:$G35,1)</f>
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <f>_xlfn.RANK.EQ(Sheet1!G35,Sheet1!$B35:$G35,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <f>_xlfn.RANK.EQ(Sheet1!B36,Sheet1!$B36:$G36,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <f>_xlfn.RANK.EQ(Sheet1!C36,Sheet1!$B36:$G36,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <f>_xlfn.RANK.EQ(Sheet1!D36,Sheet1!$B36:$G36,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <f>_xlfn.RANK.EQ(Sheet1!E36,Sheet1!$B36:$G36,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <f>_xlfn.RANK.EQ(Sheet1!F36,Sheet1!$B36:$G36,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <f>_xlfn.RANK.EQ(Sheet1!G36,Sheet1!$B36:$G36,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <f>_xlfn.RANK.EQ(Sheet1!B37,Sheet1!$B37:$G37,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <f>_xlfn.RANK.EQ(Sheet1!C37,Sheet1!$B37:$G37,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <f>_xlfn.RANK.EQ(Sheet1!D37,Sheet1!$B37:$G37,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <f>_xlfn.RANK.EQ(Sheet1!E37,Sheet1!$B37:$G37,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <f>_xlfn.RANK.EQ(Sheet1!F37,Sheet1!$B37:$G37,1)</f>
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <f>_xlfn.RANK.EQ(Sheet1!G37,Sheet1!$B37:$G37,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <f>_xlfn.RANK.EQ(Sheet1!B38,Sheet1!$B38:$G38,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <f>_xlfn.RANK.EQ(Sheet1!C38,Sheet1!$B38:$G38,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <f>_xlfn.RANK.EQ(Sheet1!D38,Sheet1!$B38:$G38,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <f>_xlfn.RANK.EQ(Sheet1!E38,Sheet1!$B38:$G38,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F38">
+        <f>_xlfn.RANK.EQ(Sheet1!F38,Sheet1!$B38:$G38,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G38">
+        <f>_xlfn.RANK.EQ(Sheet1!G38,Sheet1!$B38:$G38,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <f>_xlfn.RANK.EQ(Sheet1!B39,Sheet1!$B39:$G39,1)</f>
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <f>_xlfn.RANK.EQ(Sheet1!C39,Sheet1!$B39:$G39,1)</f>
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <f>_xlfn.RANK.EQ(Sheet1!D39,Sheet1!$B39:$G39,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <f>_xlfn.RANK.EQ(Sheet1!E39,Sheet1!$B39:$G39,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <f>_xlfn.RANK.EQ(Sheet1!F39,Sheet1!$B39:$G39,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <f>_xlfn.RANK.EQ(Sheet1!G39,Sheet1!$B39:$G39,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <f>_xlfn.RANK.EQ(Sheet1!B42,Sheet1!$B42:$G42,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <f>_xlfn.RANK.EQ(Sheet1!C42,Sheet1!$B42:$G42,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <f>_xlfn.RANK.EQ(Sheet1!D42,Sheet1!$B42:$G42,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <f>_xlfn.RANK.EQ(Sheet1!E42,Sheet1!$B42:$G42,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <f>_xlfn.RANK.EQ(Sheet1!F42,Sheet1!$B42:$G42,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <f>_xlfn.RANK.EQ(Sheet1!G42,Sheet1!$B42:$G42,1)</f>
+        <v>4</v>
+      </c>
+      <c r="I42">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <f>_xlfn.RANK.EQ(Sheet1!B43,Sheet1!$B43:$G43,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <f>_xlfn.RANK.EQ(Sheet1!C43,Sheet1!$B43:$G43,1)</f>
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <f>_xlfn.RANK.EQ(Sheet1!D43,Sheet1!$B43:$G43,1)</f>
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <f>_xlfn.RANK.EQ(Sheet1!E43,Sheet1!$B43:$G43,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <f>_xlfn.RANK.EQ(Sheet1!F43,Sheet1!$B43:$G43,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G43">
+        <f>_xlfn.RANK.EQ(Sheet1!G43,Sheet1!$B43:$G43,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <f>_xlfn.RANK.EQ(Sheet1!B44,Sheet1!$B44:$G44,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <f>_xlfn.RANK.EQ(Sheet1!C44,Sheet1!$B44:$G44,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <f>_xlfn.RANK.EQ(Sheet1!D44,Sheet1!$B44:$G44,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <f>_xlfn.RANK.EQ(Sheet1!E44,Sheet1!$B44:$G44,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <f>_xlfn.RANK.EQ(Sheet1!F44,Sheet1!$B44:$G44,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <f>_xlfn.RANK.EQ(Sheet1!G44,Sheet1!$B44:$G44,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <f>_xlfn.RANK.EQ(Sheet1!B45,Sheet1!$B45:$G45,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <f>_xlfn.RANK.EQ(Sheet1!C45,Sheet1!$B45:$G45,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <f>_xlfn.RANK.EQ(Sheet1!D45,Sheet1!$B45:$G45,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f>_xlfn.RANK.EQ(Sheet1!E45,Sheet1!$B45:$G45,1)</f>
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <f>_xlfn.RANK.EQ(Sheet1!F45,Sheet1!$B45:$G45,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G45">
+        <f>_xlfn.RANK.EQ(Sheet1!G45,Sheet1!$B45:$G45,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <f>_xlfn.RANK.EQ(Sheet1!B46,Sheet1!$B46:$G46,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <f>_xlfn.RANK.EQ(Sheet1!C46,Sheet1!$B46:$G46,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <f>_xlfn.RANK.EQ(Sheet1!D46,Sheet1!$B46:$G46,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <f>_xlfn.RANK.EQ(Sheet1!E46,Sheet1!$B46:$G46,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <f>_xlfn.RANK.EQ(Sheet1!F46,Sheet1!$B46:$G46,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <f>_xlfn.RANK.EQ(Sheet1!G46,Sheet1!$B46:$G46,1)</f>
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <f>_xlfn.RANK.EQ(Sheet1!B47,Sheet1!$B47:$G47,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <f>_xlfn.RANK.EQ(Sheet1!C47,Sheet1!$B47:$G47,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <f>_xlfn.RANK.EQ(Sheet1!D47,Sheet1!$B47:$G47,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <f>_xlfn.RANK.EQ(Sheet1!E47,Sheet1!$B47:$G47,1)</f>
+        <v>4</v>
+      </c>
+      <c r="F47">
+        <f>_xlfn.RANK.EQ(Sheet1!F47,Sheet1!$B47:$G47,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <f>_xlfn.RANK.EQ(Sheet1!G47,Sheet1!$B47:$G47,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/最小値とランクの相関.xlsx
+++ b/最小値とランクの相関.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanawayuki/Documents/SAEA_B4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B9DF61-BBE6-E748-9615-BCE8BE57095C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CE02B8-F793-9B46-9B45-C1230236653A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54960" yWindow="2080" windowWidth="23820" windowHeight="17500" activeTab="1" xr2:uid="{636FA27B-60BF-D049-9CB1-3DDDB0DCED5C}"/>
+    <workbookView xWindow="6840" yWindow="920" windowWidth="28800" windowHeight="18000" xr2:uid="{636FA27B-60BF-D049-9CB1-3DDDB0DCED5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="13">
   <si>
     <t>f1-d10</t>
     <phoneticPr fontId="1"/>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>GB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GBが優れた数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プラスの場合PSの方が優れている</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -462,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8396970-DA6D-AB44-9601-6D20E25EEF8B}">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -820,12 +828,12 @@
         <v>-0.97010246909856879</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -851,8 +859,35 @@
         <f t="shared" si="0"/>
         <v>-0.77592806803597059</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="K18" t="str">
+        <f>IF(B2 &gt; B18, "+", IF(B2 &lt; B18, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" ref="L18:P18" si="1">IF(C2 &gt; C18, "+", IF(C2 &lt; C18, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="R18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>1</v>
       </c>
@@ -878,8 +913,32 @@
         <f t="shared" si="0"/>
         <v>-0.91302408557102532</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="K19" t="str">
+        <f t="shared" ref="K19:K24" si="2">IF(B3 &gt; B19, "+", IF(B3 &lt; B19, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" ref="L19:L24" si="3">IF(C3 &gt; C19, "+", IF(C3 &lt; C19, "-", "同じ"))</f>
+        <v>-</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" ref="M19:M24" si="4">IF(D3 &gt; D19, "+", IF(D3 &lt; D19, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" ref="N19:N24" si="5">IF(E3 &gt; E19, "+", IF(E3 &lt; E19, "-", "同じ"))</f>
+        <v>-</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" ref="O19:O24" si="6">IF(F3 &gt; F19, "+", IF(F3 &lt; F19, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" ref="P19:P24" si="7">IF(G3 &gt; G19, "+", IF(G3 &lt; G19, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -905,8 +964,32 @@
         <f t="shared" si="0"/>
         <v>-0.96613977651359995</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="4"/>
+        <v>+</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -932,8 +1015,32 @@
         <f t="shared" si="0"/>
         <v>-0.96291569739990768</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="K21" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="4"/>
+        <v>+</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="6"/>
+        <v>+</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -959,8 +1066,32 @@
         <f t="shared" si="0"/>
         <v>-0.94107395899262702</v>
       </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="K22" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="4"/>
+        <v>+</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="6"/>
+        <v>+</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -986,8 +1117,32 @@
         <f t="shared" si="0"/>
         <v>-0.97325656104626979</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="K23" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="4"/>
+        <v>+</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="6"/>
+        <v>+</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="7"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1014,8 +1169,32 @@
         <f t="shared" si="0"/>
         <v>-0.9001501424816275</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="K26" t="str">
+        <f t="shared" ref="K25:K31" si="8">IF(B10 &gt; B26, "+", IF(B10 &lt; B26, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" ref="L25:L31" si="9">IF(C10 &gt; C26, "+", IF(C10 &lt; C26, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" ref="M25:M31" si="10">IF(D10 &gt; D26, "+", IF(D10 &lt; D26, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" ref="N25:N31" si="11">IF(E10 &gt; E26, "+", IF(E10 &lt; E26, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" ref="O25:O31" si="12">IF(F10 &gt; F26, "+", IF(F10 &lt; F26, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" ref="P25:P31" si="13">IF(G10 &gt; G26, "+", IF(G10 &lt; G26, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1041,8 +1220,32 @@
         <f t="shared" si="0"/>
         <v>-0.82430241535160043</v>
       </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="K27" t="str">
+        <f>IF(B11 &gt; B27, "+", IF(B11 &lt; B27, "-", "同じ"))</f>
+        <v>-</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="9"/>
+        <v>-</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="10"/>
+        <v>+</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="12"/>
+        <v>+</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="13"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1068,8 +1271,32 @@
         <f t="shared" si="0"/>
         <v>-0.80349505211487571</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="K28" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="10"/>
+        <v>+</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="12"/>
+        <v>+</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="13"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -1095,8 +1322,32 @@
         <f t="shared" si="0"/>
         <v>-0.70494972410070256</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="K29" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="10"/>
+        <v>+</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="12"/>
+        <v>+</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="13"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1122,8 +1373,32 @@
         <f t="shared" si="0"/>
         <v>-0.96173538968264727</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="K30" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="10"/>
+        <v>+</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="12"/>
+        <v>+</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="13"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1149,13 +1424,37 @@
         <f t="shared" si="0"/>
         <v>-0.99736318937642932</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="K31" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="10"/>
+        <v>+</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="11"/>
+        <v>+</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="12"/>
+        <v>+</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="13"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
       <c r="A33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
         <v>0</v>
       </c>
@@ -1178,11 +1477,41 @@
         <v>7087.6</v>
       </c>
       <c r="I34">
-        <f t="shared" ref="I34:I47" si="1">CORREL($B$1:$G$1,B34:G34)</f>
+        <f t="shared" ref="I34:I39" si="14">CORREL($B$1:$G$1,B34:G34)</f>
         <v>-0.71136126748938622</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="K34" t="str">
+        <f>IF(B2 &gt; B34, "+", IF(B2 &lt; B34, "-", "同じ"))</f>
+        <v>-</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" ref="L34:P34" si="15">IF(C2 &gt; C34, "+", IF(C2 &lt; C34, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="M34" t="str">
+        <f>IF(D2 &gt; D34, "+", IF(D2 &lt; D34, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="15"/>
+        <v>+</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="15"/>
+        <v>+</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="15"/>
+        <v>+</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
       <c r="A35" t="s">
         <v>1</v>
       </c>
@@ -1205,11 +1534,38 @@
         <v>1084.5999999999999</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-0.6318786611572238</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="K35" t="str">
+        <f t="shared" ref="K35:K39" si="16">IF(B3 &gt; B35, "+", IF(B3 &lt; B35, "-", "同じ"))</f>
+        <v>-</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" ref="L35:L39" si="17">IF(C3 &gt; C35, "+", IF(C3 &lt; C35, "-", "同じ"))</f>
+        <v>-</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" ref="M35:M39" si="18">IF(D3 &gt; D35, "+", IF(D3 &lt; D35, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" ref="N35:N39" si="19">IF(E3 &gt; E35, "+", IF(E3 &lt; E35, "-", "同じ"))</f>
+        <v>-</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" ref="O35:O39" si="20">IF(F3 &gt; F35, "+", IF(F3 &lt; F35, "-", "同じ"))</f>
+        <v>-</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" ref="P35:P39" si="21">IF(G3 &gt; G35, "+", IF(G3 &lt; G35, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="R35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -1232,11 +1588,35 @@
         <v>400</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-0.93049859866701856</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="K36" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="17"/>
+        <v>-</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="18"/>
+        <v>-</v>
+      </c>
+      <c r="N36" t="str">
+        <f>IF(E4 &gt; E36, "+", IF(E4 &lt; E36, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="20"/>
+        <v>+</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="21"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
         <v>3</v>
       </c>
@@ -1259,11 +1639,35 @@
         <v>801.31</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-0.65589367561723122</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="K37" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="17"/>
+        <v>+</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="18"/>
+        <v>+</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="19"/>
+        <v>+</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="20"/>
+        <v>+</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="21"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1286,11 +1690,35 @@
         <v>1615.5</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-0.73631892847259406</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="K38" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="17"/>
+        <v>+</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="18"/>
+        <v>+</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="19"/>
+        <v>+</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="20"/>
+        <v>+</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="21"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1313,11 +1741,35 @@
         <v>1593.3</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="14"/>
         <v>-0.90208201871425642</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="K39" t="str">
+        <f t="shared" si="16"/>
+        <v>-</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="17"/>
+        <v>-</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="18"/>
+        <v>+</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="19"/>
+        <v>+</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="20"/>
+        <v>+</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="21"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -1341,11 +1793,38 @@
       </c>
       <c r="H42" s="1"/>
       <c r="I42">
-        <f t="shared" ref="I42:I47" si="2">CORREL($B$1:$G$1,B42:G42)</f>
+        <f t="shared" ref="I42:I47" si="22">CORREL($B$1:$G$1,B42:G42)</f>
         <v>-0.79378137288461759</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="K42" t="str">
+        <f>IF(B10 &gt; B42, "+", IF(B10 &lt; B42, "-", "同じ"))</f>
+        <v>-</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" ref="L42:P42" si="23">IF(C10 &gt; C42, "+", IF(C10 &lt; C42, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="23"/>
+        <v>+</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="23"/>
+        <v>+</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="23"/>
+        <v>+</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="23"/>
+        <v>+</v>
+      </c>
+      <c r="R42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -1368,11 +1847,38 @@
         <v>9215.1</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>-0.77786948878912932</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="K43" t="str">
+        <f t="shared" ref="K43:K47" si="24">IF(B11 &gt; B43, "+", IF(B11 &lt; B43, "-", "同じ"))</f>
+        <v>-</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" ref="L43:L47" si="25">IF(C11 &gt; C43, "+", IF(C11 &lt; C43, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" ref="M43:M47" si="26">IF(D11 &gt; D43, "+", IF(D11 &lt; D43, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" ref="N43:N47" si="27">IF(E11 &gt; E43, "+", IF(E11 &lt; E43, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" ref="O43:O47" si="28">IF(F11 &gt; F43, "+", IF(F11 &lt; F43, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" ref="P43:P47" si="29">IF(G11 &gt; G43, "+", IF(G11 &lt; G43, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="R43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1395,11 +1901,35 @@
         <v>602.23</v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>-0.8970604571838241</v>
       </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="K44" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="25"/>
+        <v>+</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="26"/>
+        <v>-</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="27"/>
+        <v>+</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="28"/>
+        <v>+</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="29"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
         <v>3</v>
       </c>
@@ -1422,11 +1952,35 @@
         <v>816.68</v>
       </c>
       <c r="I45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>-0.66785378896970038</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="K45" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="25"/>
+        <v>+</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="26"/>
+        <v>+</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="27"/>
+        <v>+</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="28"/>
+        <v>+</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="29"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -1449,11 +2003,35 @@
         <v>1631.2</v>
       </c>
       <c r="I46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>-0.77803639569828531</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="K46" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="25"/>
+        <v>+</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="26"/>
+        <v>+</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="27"/>
+        <v>+</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="28"/>
+        <v>+</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="29"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1476,8 +2054,32 @@
         <v>2080.8000000000002</v>
       </c>
       <c r="I47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="22"/>
         <v>-0.85634072861495913</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="24"/>
+        <v>-</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="25"/>
+        <v>+</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="26"/>
+        <v>+</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="27"/>
+        <v>+</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="28"/>
+        <v>+</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="29"/>
+        <v>+</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +2092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7DD38-EEBD-E74D-8C07-A85AE20818A3}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>

--- a/最小値とランクの相関.xlsx
+++ b/最小値とランクの相関.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanawayuki/Documents/SAEA_B4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CE02B8-F793-9B46-9B45-C1230236653A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD2721F-A3AD-8C4B-AA06-36DEF6604788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="920" windowWidth="28800" windowHeight="18000" xr2:uid="{636FA27B-60BF-D049-9CB1-3DDDB0DCED5C}"/>
+    <workbookView xWindow="11900" yWindow="1400" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{636FA27B-60BF-D049-9CB1-3DDDB0DCED5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="bubbleソート導入後１" sheetId="4" r:id="rId3"/>
+    <sheet name="bubbleソート導入後" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="13">
   <si>
     <t>f1-d10</t>
     <phoneticPr fontId="1"/>
@@ -174,9 +176,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -214,7 +216,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -320,7 +322,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -462,7 +464,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -472,7 +474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8396970-DA6D-AB44-9601-6D20E25EEF8B}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -914,27 +916,27 @@
         <v>-0.91302408557102532</v>
       </c>
       <c r="K19" t="str">
-        <f t="shared" ref="K19:K24" si="2">IF(B3 &gt; B19, "+", IF(B3 &lt; B19, "-", "同じ"))</f>
+        <f t="shared" ref="K19:K23" si="2">IF(B3 &gt; B19, "+", IF(B3 &lt; B19, "-", "同じ"))</f>
         <v>+</v>
       </c>
       <c r="L19" t="str">
-        <f t="shared" ref="L19:L24" si="3">IF(C3 &gt; C19, "+", IF(C3 &lt; C19, "-", "同じ"))</f>
+        <f t="shared" ref="L19:L23" si="3">IF(C3 &gt; C19, "+", IF(C3 &lt; C19, "-", "同じ"))</f>
         <v>-</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" ref="M19:M24" si="4">IF(D3 &gt; D19, "+", IF(D3 &lt; D19, "-", "同じ"))</f>
+        <f t="shared" ref="M19:M23" si="4">IF(D3 &gt; D19, "+", IF(D3 &lt; D19, "-", "同じ"))</f>
         <v>+</v>
       </c>
       <c r="N19" t="str">
-        <f t="shared" ref="N19:N24" si="5">IF(E3 &gt; E19, "+", IF(E3 &lt; E19, "-", "同じ"))</f>
+        <f t="shared" ref="N19:N23" si="5">IF(E3 &gt; E19, "+", IF(E3 &lt; E19, "-", "同じ"))</f>
         <v>-</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" ref="O19:O24" si="6">IF(F3 &gt; F19, "+", IF(F3 &lt; F19, "-", "同じ"))</f>
+        <f t="shared" ref="O19:O23" si="6">IF(F3 &gt; F19, "+", IF(F3 &lt; F19, "-", "同じ"))</f>
         <v>+</v>
       </c>
       <c r="P19" t="str">
-        <f t="shared" ref="P19:P24" si="7">IF(G3 &gt; G19, "+", IF(G3 &lt; G19, "-", "同じ"))</f>
+        <f t="shared" ref="P19:P23" si="7">IF(G3 &gt; G19, "+", IF(G3 &lt; G19, "-", "同じ"))</f>
         <v>+</v>
       </c>
     </row>
@@ -1170,27 +1172,27 @@
         <v>-0.9001501424816275</v>
       </c>
       <c r="K26" t="str">
-        <f t="shared" ref="K25:K31" si="8">IF(B10 &gt; B26, "+", IF(B10 &lt; B26, "-", "同じ"))</f>
+        <f t="shared" ref="K26:K31" si="8">IF(B10 &gt; B26, "+", IF(B10 &lt; B26, "-", "同じ"))</f>
         <v>+</v>
       </c>
       <c r="L26" t="str">
-        <f t="shared" ref="L25:L31" si="9">IF(C10 &gt; C26, "+", IF(C10 &lt; C26, "-", "同じ"))</f>
+        <f t="shared" ref="L26:L31" si="9">IF(C10 &gt; C26, "+", IF(C10 &lt; C26, "-", "同じ"))</f>
         <v>+</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" ref="M25:M31" si="10">IF(D10 &gt; D26, "+", IF(D10 &lt; D26, "-", "同じ"))</f>
+        <f t="shared" ref="M26:M31" si="10">IF(D10 &gt; D26, "+", IF(D10 &lt; D26, "-", "同じ"))</f>
         <v>+</v>
       </c>
       <c r="N26" t="str">
-        <f t="shared" ref="N25:N31" si="11">IF(E10 &gt; E26, "+", IF(E10 &lt; E26, "-", "同じ"))</f>
+        <f t="shared" ref="N26:N31" si="11">IF(E10 &gt; E26, "+", IF(E10 &lt; E26, "-", "同じ"))</f>
         <v>+</v>
       </c>
       <c r="O26" t="str">
-        <f t="shared" ref="O25:O31" si="12">IF(F10 &gt; F26, "+", IF(F10 &lt; F26, "-", "同じ"))</f>
+        <f t="shared" ref="O26:O31" si="12">IF(F10 &gt; F26, "+", IF(F10 &lt; F26, "-", "同じ"))</f>
         <v>+</v>
       </c>
       <c r="P26" t="str">
-        <f t="shared" ref="P25:P31" si="13">IF(G10 &gt; G26, "+", IF(G10 &lt; G26, "-", "同じ"))</f>
+        <f t="shared" ref="P26:P31" si="13">IF(G10 &gt; G26, "+", IF(G10 &lt; G26, "-", "同じ"))</f>
         <v>+</v>
       </c>
     </row>
@@ -2092,8 +2094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7DD38-EEBD-E74D-8C07-A85AE20818A3}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3287,4 +3289,2110 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AAF738-A955-FB4A-8CC9-957E794BFCC3}">
+  <dimension ref="A1:R47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>0.5</v>
+      </c>
+      <c r="C1">
+        <v>0.6</v>
+      </c>
+      <c r="D1">
+        <v>0.7</v>
+      </c>
+      <c r="E1">
+        <v>0.8</v>
+      </c>
+      <c r="F1">
+        <v>0.9</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>5211800</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1194000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>678970</v>
+      </c>
+      <c r="E2" s="1">
+        <v>222120</v>
+      </c>
+      <c r="F2">
+        <v>71082</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3034600</v>
+      </c>
+      <c r="I2">
+        <f>CORREL($B$1:$G$1,B2:G2)</f>
+        <v>-0.39082283749561014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>23476</v>
+      </c>
+      <c r="C3">
+        <v>25399</v>
+      </c>
+      <c r="D3">
+        <v>25457</v>
+      </c>
+      <c r="E3">
+        <v>24436</v>
+      </c>
+      <c r="F3">
+        <v>20721</v>
+      </c>
+      <c r="G3">
+        <v>23038</v>
+      </c>
+      <c r="I3">
+        <f>CORREL($B$1:$G$1,B3:G3)</f>
+        <v>-0.51755595410811417</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>767.78</v>
+      </c>
+      <c r="C4">
+        <v>659.74</v>
+      </c>
+      <c r="D4">
+        <v>668.67</v>
+      </c>
+      <c r="E4">
+        <v>593.84</v>
+      </c>
+      <c r="F4">
+        <v>593.16999999999996</v>
+      </c>
+      <c r="G4">
+        <v>616.98</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I31" si="0">CORREL($B$1:$G$1,B4:G4)</f>
+        <v>-0.83281547967854896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>803.46</v>
+      </c>
+      <c r="C5">
+        <v>802.83</v>
+      </c>
+      <c r="D5">
+        <v>802.66</v>
+      </c>
+      <c r="E5">
+        <v>802.81</v>
+      </c>
+      <c r="F5">
+        <v>802.59</v>
+      </c>
+      <c r="G5">
+        <v>802.74</v>
+      </c>
+      <c r="I5">
+        <f>CORREL($B$1:$G$1,B5:G5)</f>
+        <v>-0.71209953607587184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1619.3</v>
+      </c>
+      <c r="C6">
+        <v>1619.3</v>
+      </c>
+      <c r="D6">
+        <v>1618.7</v>
+      </c>
+      <c r="E6">
+        <v>1618.6</v>
+      </c>
+      <c r="F6">
+        <v>1618.1</v>
+      </c>
+      <c r="G6">
+        <v>1618.1</v>
+      </c>
+      <c r="I6">
+        <f>CORREL($B$1:$G$1,B6:G6)</f>
+        <v>-0.96335964810974739</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1807.1</v>
+      </c>
+      <c r="C7">
+        <v>1709.4</v>
+      </c>
+      <c r="D7">
+        <v>1786.6</v>
+      </c>
+      <c r="E7">
+        <v>1717.1</v>
+      </c>
+      <c r="F7">
+        <v>1712.2</v>
+      </c>
+      <c r="G7">
+        <v>1684.7</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>-0.73816594380005562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>613300000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>364890000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>181750000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>122020000</v>
+      </c>
+      <c r="F10" s="1">
+        <v>135550000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>91460000</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>-0.88737830596870593</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>112600</v>
+      </c>
+      <c r="C11" s="1">
+        <v>108240</v>
+      </c>
+      <c r="D11" s="1">
+        <v>107400</v>
+      </c>
+      <c r="E11" s="1">
+        <v>107150</v>
+      </c>
+      <c r="F11" s="1">
+        <v>101260</v>
+      </c>
+      <c r="G11" s="1">
+        <v>105160</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>-0.83769694617603951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>5766.1</v>
+      </c>
+      <c r="C12">
+        <v>4679.7</v>
+      </c>
+      <c r="D12">
+        <v>4598.7</v>
+      </c>
+      <c r="E12">
+        <v>4526.6000000000004</v>
+      </c>
+      <c r="F12">
+        <v>3883.7</v>
+      </c>
+      <c r="G12">
+        <v>4010.3</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>-0.899695194097891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>900.74</v>
+      </c>
+      <c r="C13">
+        <v>869.12</v>
+      </c>
+      <c r="D13">
+        <v>840.65</v>
+      </c>
+      <c r="E13">
+        <v>845.62</v>
+      </c>
+      <c r="F13">
+        <v>848.55</v>
+      </c>
+      <c r="G13">
+        <v>844.34</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>-0.78202348810433642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1677.3</v>
+      </c>
+      <c r="C14">
+        <v>1661.9</v>
+      </c>
+      <c r="D14">
+        <v>1658.6</v>
+      </c>
+      <c r="E14">
+        <v>1655.2</v>
+      </c>
+      <c r="F14">
+        <v>1657.7</v>
+      </c>
+      <c r="G14">
+        <v>1654.2</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>-0.82513714083538037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>2248.5</v>
+      </c>
+      <c r="C15">
+        <v>2168.1999999999998</v>
+      </c>
+      <c r="D15">
+        <v>2149.6</v>
+      </c>
+      <c r="E15">
+        <v>2163.4</v>
+      </c>
+      <c r="F15">
+        <v>2140.1</v>
+      </c>
+      <c r="G15">
+        <v>2185.1</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>-0.53323085881881971</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="I18" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K18" t="str">
+        <f>IF(B2 &gt; B18, "+", IF(B2 &lt; B18, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" ref="L18:P23" si="1">IF(C2 &gt; C18, "+", IF(C2 &lt; C18, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="R18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" ref="K19:K23" si="2">IF(B3 &gt; B19, "+", IF(B3 &lt; B19, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" ref="K26:P31" si="3">IF(B10 &gt; B26, "+", IF(B10 &lt; B26, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="L26" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="I27" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K27" t="str">
+        <f>IF(B11 &gt; B27, "+", IF(B11 &lt; B27, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="L27" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="L28" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="L29" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="L30" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="L31" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="3"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>8557200000</v>
+      </c>
+      <c r="C34">
+        <v>8589.5</v>
+      </c>
+      <c r="D34">
+        <v>7452</v>
+      </c>
+      <c r="E34">
+        <v>6574.5</v>
+      </c>
+      <c r="F34">
+        <v>8110.6</v>
+      </c>
+      <c r="G34">
+        <v>6578</v>
+      </c>
+      <c r="I34">
+        <f t="shared" ref="I34:I39" si="4">CORREL($B$1:$G$1,B34:G34)</f>
+        <v>-0.65465377366307254</v>
+      </c>
+      <c r="K34" t="str">
+        <f>IF(B2 &gt; B34, "+", IF(B2 &lt; B34, "-", "同じ"))</f>
+        <v>-</v>
+      </c>
+      <c r="L34" t="str">
+        <f t="shared" ref="L34:P39" si="5">IF(C2 &gt; C34, "+", IF(C2 &lt; C34, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="M34" t="str">
+        <f>IF(D2 &gt; D34, "+", IF(D2 &lt; D34, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>65812</v>
+      </c>
+      <c r="C35">
+        <v>8768.7000000000007</v>
+      </c>
+      <c r="D35">
+        <v>1524.2</v>
+      </c>
+      <c r="E35">
+        <v>1197.5999999999999</v>
+      </c>
+      <c r="F35">
+        <v>1064.7</v>
+      </c>
+      <c r="G35">
+        <v>1139.8</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="4"/>
+        <v>-0.71501008707830405</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" ref="K35:K39" si="6">IF(B3 &gt; B35, "+", IF(B3 &lt; B35, "-", "同じ"))</f>
+        <v>-</v>
+      </c>
+      <c r="L35" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="R35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>2486.5</v>
+      </c>
+      <c r="C36">
+        <v>400.29</v>
+      </c>
+      <c r="D36">
+        <v>400.06</v>
+      </c>
+      <c r="E36">
+        <v>400.01</v>
+      </c>
+      <c r="F36">
+        <v>400.01</v>
+      </c>
+      <c r="G36">
+        <v>400.01</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="4"/>
+        <v>-0.65473022483329535</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="L36" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="N36" t="str">
+        <f>IF(E4 &gt; E36, "+", IF(E4 &lt; E36, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <v>29459</v>
+      </c>
+      <c r="C37">
+        <v>801.35</v>
+      </c>
+      <c r="D37">
+        <v>801.32</v>
+      </c>
+      <c r="E37">
+        <v>801.32</v>
+      </c>
+      <c r="F37">
+        <v>801.4</v>
+      </c>
+      <c r="G37">
+        <v>801.28</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="4"/>
+        <v>-0.65465421895847098</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="L37" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>2001.2</v>
+      </c>
+      <c r="C38">
+        <v>1616.3</v>
+      </c>
+      <c r="D38">
+        <v>1615.9</v>
+      </c>
+      <c r="E38">
+        <v>1615.3</v>
+      </c>
+      <c r="F38">
+        <v>1615.4</v>
+      </c>
+      <c r="G38">
+        <v>1615.3</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="4"/>
+        <v>-0.65634950203341536</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="L38" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>2088.3000000000002</v>
+      </c>
+      <c r="C39">
+        <v>1657.2</v>
+      </c>
+      <c r="D39">
+        <v>1611.4</v>
+      </c>
+      <c r="E39">
+        <v>1557.1</v>
+      </c>
+      <c r="F39">
+        <v>1544.6</v>
+      </c>
+      <c r="G39">
+        <v>1543.2</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="4"/>
+        <v>-0.78895716379842129</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="L39" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="5"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" t="e">
+        <f t="shared" ref="I42:I47" si="7">CORREL($B$1:$G$1,B42:G42)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K42" t="str">
+        <f>IF(B10 &gt; B42, "+", IF(B10 &lt; B42, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="L42" t="str">
+        <f t="shared" ref="L42:P47" si="8">IF(C10 &gt; C42, "+", IF(C10 &lt; C42, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="R42">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="I43" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" ref="K43:K47" si="9">IF(B11 &gt; B43, "+", IF(B11 &lt; B43, "-", "同じ"))</f>
+        <v>+</v>
+      </c>
+      <c r="L43" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="R43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+      <c r="L44" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="I45" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+      <c r="L45" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+      <c r="L46" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="9"/>
+        <v>+</v>
+      </c>
+      <c r="L47" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="8"/>
+        <v>+</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FC4387-EE7D-F04F-B21F-41D3A426B044}">
+  <dimension ref="A1:I47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>5</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>2</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B2,bubbleソート導入後１!$B2:$G2,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C2,bubbleソート導入後１!$B2:$G2,1)</f>
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D2,bubbleソート導入後１!$B2:$G2,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E2,bubbleソート導入後１!$B2:$G2,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F2,bubbleソート導入後１!$B2:$G2,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G2,bubbleソート導入後１!$B2:$G2,1)</f>
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>0.46700000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B3,bubbleソート導入後１!$B3:$G3,1)</f>
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C3,bubbleソート導入後１!$B3:$G3,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D3,bubbleソート導入後１!$B3:$G3,1)</f>
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E3,bubbleソート導入後１!$B3:$G3,1)</f>
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F3,bubbleソート導入後１!$B3:$G3,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G3,bubbleソート導入後１!$B3:$G3,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B4,bubbleソート導入後１!$B4:$G4,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C4,bubbleソート導入後１!$B4:$G4,1)</f>
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D4,bubbleソート導入後１!$B4:$G4,1)</f>
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E4,bubbleソート導入後１!$B4:$G4,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F4,bubbleソート導入後１!$B4:$G4,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G4,bubbleソート導入後１!$B4:$G4,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B5,bubbleソート導入後１!$B5:$G5,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C5,bubbleソート導入後１!$B5:$G5,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D5,bubbleソート導入後１!$B5:$G5,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E5,bubbleソート導入後１!$B5:$G5,1)</f>
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F5,bubbleソート導入後１!$B5:$G5,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G5,bubbleソート導入後１!$B5:$G5,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B6,bubbleソート導入後１!$B6:$G6,1)</f>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C6,bubbleソート導入後１!$B6:$G6,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D6,bubbleソート導入後１!$B6:$G6,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E6,bubbleソート導入後１!$B6:$G6,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F6,bubbleソート導入後１!$B6:$G6,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G6,bubbleソート導入後１!$B6:$G6,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B7,bubbleソート導入後１!$B7:$G7,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C7,bubbleソート導入後１!$B7:$G7,1)</f>
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D7,bubbleソート導入後１!$B7:$G7,1)</f>
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E7,bubbleソート導入後１!$B7:$G7,1)</f>
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F7,bubbleソート導入後１!$B7:$G7,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G7,bubbleソート導入後１!$B7:$G7,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B10,bubbleソート導入後１!$B10:$G10,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C10,bubbleソート導入後１!$B10:$G10,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D10,bubbleソート導入後１!$B10:$G10,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E10,bubbleソート導入後１!$B10:$G10,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F10,bubbleソート導入後１!$B10:$G10,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G10,bubbleソート導入後１!$B10:$G10,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B11,bubbleソート導入後１!$B11:$G11,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C11,bubbleソート導入後１!$B11:$G11,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D11,bubbleソート導入後１!$B11:$G11,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E11,bubbleソート導入後１!$B11:$G11,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F11,bubbleソート導入後１!$B11:$G11,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G11,bubbleソート導入後１!$B11:$G11,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I11">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B12,bubbleソート導入後１!$B12:$G12,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C12,bubbleソート導入後１!$B12:$G12,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D12,bubbleソート導入後１!$B12:$G12,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E12,bubbleソート導入後１!$B12:$G12,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F12,bubbleソート導入後１!$B12:$G12,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G12,bubbleソート導入後１!$B12:$G12,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B13,bubbleソート導入後１!$B13:$G13,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C13,bubbleソート導入後１!$B13:$G13,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D13,bubbleソート導入後１!$B13:$G13,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E13,bubbleソート導入後１!$B13:$G13,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F13,bubbleソート導入後１!$B13:$G13,1)</f>
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G13,bubbleソート導入後１!$B13:$G13,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>0.46600000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B14,bubbleソート導入後１!$B14:$G14,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C14,bubbleソート導入後１!$B14:$G14,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D14,bubbleソート導入後１!$B14:$G14,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E14,bubbleソート導入後１!$B14:$G14,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F14,bubbleソート導入後１!$B14:$G14,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G14,bubbleソート導入後１!$B14:$G14,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B15,bubbleソート導入後１!$B15:$G15,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C15,bubbleソート導入後１!$B15:$G15,1)</f>
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D15,bubbleソート導入後１!$B15:$G15,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E15,bubbleソート導入後１!$B15:$G15,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F15,bubbleソート導入後１!$B15:$G15,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G15,bubbleソート導入後１!$B15:$G15,1)</f>
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B34,bubbleソート導入後１!$B34:$G34,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C34,bubbleソート導入後１!$B34:$G34,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D34,bubbleソート導入後１!$B34:$G34,1)</f>
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E34,bubbleソート導入後１!$B34:$G34,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F34,bubbleソート導入後１!$B34:$G34,1)</f>
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G34,bubbleソート導入後１!$B34:$G34,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I34">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B35,bubbleソート導入後１!$B35:$G35,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C35">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C35,bubbleソート導入後１!$B35:$G35,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D35,bubbleソート導入後１!$B35:$G35,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E35,bubbleソート導入後１!$B35:$G35,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F35,bubbleソート導入後１!$B35:$G35,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G35,bubbleソート導入後１!$B35:$G35,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>0.86599999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B36,bubbleソート導入後１!$B36:$G36,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C36">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C36,bubbleソート導入後１!$B36:$G36,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D36,bubbleソート導入後１!$B36:$G36,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E36,bubbleソート導入後１!$B36:$G36,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F36,bubbleソート導入後１!$B36:$G36,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G36,bubbleソート導入後１!$B36:$G36,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B37,bubbleソート導入後１!$B37:$G37,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C37,bubbleソート導入後１!$B37:$G37,1)</f>
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D37,bubbleソート導入後１!$B37:$G37,1)</f>
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E37,bubbleソート導入後１!$B37:$G37,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F37,bubbleソート導入後１!$B37:$G37,1)</f>
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G37,bubbleソート導入後１!$B37:$G37,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B38,bubbleソート導入後１!$B38:$G38,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C38,bubbleソート導入後１!$B38:$G38,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D38,bubbleソート導入後１!$B38:$G38,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E38,bubbleソート導入後１!$B38:$G38,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F38,bubbleソート導入後１!$B38:$G38,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G38">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G38,bubbleソート導入後１!$B38:$G38,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0.82799999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B39,bubbleソート導入後１!$B39:$G39,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C39,bubbleソート導入後１!$B39:$G39,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D39,bubbleソート導入後１!$B39:$G39,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E39,bubbleソート導入後１!$B39:$G39,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F39,bubbleソート導入後１!$B39:$G39,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G39">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G39,bubbleソート導入後１!$B39:$G39,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="I42">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0.73299999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="I47">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/最小値とランクの相関.xlsx
+++ b/最小値とランクの相関.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanawayuki/Documents/SAEA_B4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD2721F-A3AD-8C4B-AA06-36DEF6604788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E899EC-8307-CC45-8B53-AD897E828D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11900" yWindow="1400" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{636FA27B-60BF-D049-9CB1-3DDDB0DCED5C}"/>
+    <workbookView xWindow="7660" yWindow="2520" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{636FA27B-60BF-D049-9CB1-3DDDB0DCED5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3296,7 +3296,7 @@
   <dimension ref="A1:R47"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="B47" sqref="B47:G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4391,20 +4391,32 @@
       <c r="A42" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
+      <c r="B42" s="1">
+        <v>67224000000</v>
+      </c>
+      <c r="C42" s="1">
+        <v>250100000</v>
+      </c>
+      <c r="D42" s="1">
+        <v>33236000</v>
+      </c>
+      <c r="E42" s="1">
+        <v>15292000</v>
+      </c>
+      <c r="F42" s="1">
+        <v>23245000</v>
+      </c>
+      <c r="G42" s="1">
+        <v>9716800</v>
+      </c>
       <c r="H42" s="1"/>
-      <c r="I42" t="e">
+      <c r="I42">
         <f t="shared" ref="I42:I47" si="7">CORREL($B$1:$G$1,B42:G42)</f>
-        <v>#DIV/0!</v>
+        <v>-0.65656351866447527</v>
       </c>
       <c r="K42" t="str">
         <f>IF(B10 &gt; B42, "+", IF(B10 &lt; B42, "-", "同じ"))</f>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="L42" t="str">
         <f t="shared" ref="L42:P47" si="8">IF(C10 &gt; C42, "+", IF(C10 &lt; C42, "-", "同じ"))</f>
@@ -4434,10 +4446,27 @@
       <c r="A43" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="I43" t="e">
+      <c r="B43">
+        <v>98208</v>
+      </c>
+      <c r="C43">
+        <v>34206</v>
+      </c>
+      <c r="D43">
+        <v>13831</v>
+      </c>
+      <c r="E43">
+        <v>9497.9</v>
+      </c>
+      <c r="F43">
+        <v>10193</v>
+      </c>
+      <c r="G43">
+        <v>10279</v>
+      </c>
+      <c r="I43">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-0.78770229154418281</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" ref="K43:K47" si="9">IF(B11 &gt; B43, "+", IF(B11 &lt; B43, "-", "同じ"))</f>
@@ -4471,13 +4500,31 @@
       <c r="A44" t="s">
         <v>2</v>
       </c>
-      <c r="I44" t="e">
+      <c r="B44">
+        <v>8787.7000000000007</v>
+      </c>
+      <c r="C44">
+        <v>1344.6</v>
+      </c>
+      <c r="D44">
+        <v>736.5</v>
+      </c>
+      <c r="E44">
+        <v>555.85</v>
+      </c>
+      <c r="F44">
+        <v>476.82</v>
+      </c>
+      <c r="G44">
+        <v>491.3</v>
+      </c>
+      <c r="I44">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-0.71500555263619348</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="9"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="L44" t="str">
         <f t="shared" si="8"/>
@@ -4504,15 +4551,31 @@
       <c r="A45" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="I45" t="e">
+      <c r="B45" s="1">
+        <v>34937000</v>
+      </c>
+      <c r="C45">
+        <v>868.51</v>
+      </c>
+      <c r="D45">
+        <v>820.94</v>
+      </c>
+      <c r="E45">
+        <v>815.67</v>
+      </c>
+      <c r="F45">
+        <v>815.87</v>
+      </c>
+      <c r="G45">
+        <v>816.29</v>
+      </c>
+      <c r="I45">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-0.65465449153130728</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="9"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="L45" t="str">
         <f t="shared" si="8"/>
@@ -4539,13 +4602,31 @@
       <c r="A46" t="s">
         <v>4</v>
       </c>
-      <c r="I46" t="e">
+      <c r="B46">
+        <v>2780.5</v>
+      </c>
+      <c r="C46">
+        <v>1645.5</v>
+      </c>
+      <c r="D46">
+        <v>1634.7</v>
+      </c>
+      <c r="E46">
+        <v>1633.1</v>
+      </c>
+      <c r="F46">
+        <v>1631.9</v>
+      </c>
+      <c r="G46">
+        <v>1632</v>
+      </c>
+      <c r="I46">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-0.66142874424326592</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="9"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="L46" t="str">
         <f t="shared" si="8"/>
@@ -4572,13 +4653,31 @@
       <c r="A47" t="s">
         <v>5</v>
       </c>
-      <c r="I47" t="e">
+      <c r="B47">
+        <v>3254.3</v>
+      </c>
+      <c r="C47">
+        <v>2132.6999999999998</v>
+      </c>
+      <c r="D47">
+        <v>2058.5</v>
+      </c>
+      <c r="E47">
+        <v>2078</v>
+      </c>
+      <c r="F47">
+        <v>2061.1999999999998</v>
+      </c>
+      <c r="G47">
+        <v>2104.9</v>
+      </c>
+      <c r="I47">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-0.66535978933607387</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="9"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="L47" t="str">
         <f t="shared" si="8"/>
@@ -4611,8 +4710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FC4387-EE7D-F04F-B21F-41D3A426B044}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -5346,30 +5445,126 @@
       <c r="A42" t="s">
         <v>6</v>
       </c>
+      <c r="B42">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B42,bubbleソート導入後１!$B42:$G42,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C42,bubbleソート導入後１!$B42:$G42,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D42,bubbleソート導入後１!$B42:$G42,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E42,bubbleソート導入後１!$B42:$G42,1)</f>
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F42,bubbleソート導入後１!$B42:$G42,1)</f>
+        <v>3</v>
+      </c>
+      <c r="G42">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G42,bubbleソート導入後１!$B42:$G42,1)</f>
+        <v>1</v>
+      </c>
       <c r="I42">
-        <v>0.2</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>1</v>
       </c>
+      <c r="B43">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B43,bubbleソート導入後１!$B43:$G43,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C43,bubbleソート導入後１!$B43:$G43,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D43,bubbleソート導入後１!$B43:$G43,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E43,bubbleソート導入後１!$B43:$G43,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F43,bubbleソート導入後１!$B43:$G43,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G43,bubbleソート導入後１!$B43:$G43,1)</f>
+        <v>3</v>
+      </c>
       <c r="I43">
-        <v>0.73299999999999998</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>2</v>
       </c>
+      <c r="B44">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B44,bubbleソート導入後１!$B44:$G44,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C44,bubbleソート導入後１!$B44:$G44,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D44,bubbleソート導入後１!$B44:$G44,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E44,bubbleソート導入後１!$B44:$G44,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F44,bubbleソート導入後１!$B44:$G44,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G44,bubbleソート導入後１!$B44:$G44,1)</f>
+        <v>2</v>
+      </c>
       <c r="I44">
-        <v>0.86699999999999999</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>3</v>
       </c>
+      <c r="B45">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B45,bubbleソート導入後１!$B45:$G45,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C45,bubbleソート導入後１!$B45:$G45,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D45,bubbleソート導入後１!$B45:$G45,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E45">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E45,bubbleソート導入後１!$B45:$G45,1)</f>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F45,bubbleソート導入後１!$B45:$G45,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G45,bubbleソート導入後１!$B45:$G45,1)</f>
+        <v>3</v>
+      </c>
       <c r="I45">
         <v>0.6</v>
       </c>
@@ -5378,16 +5573,64 @@
       <c r="A46" t="s">
         <v>4</v>
       </c>
+      <c r="B46">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B46,bubbleソート導入後１!$B46:$G46,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C46,bubbleソート導入後１!$B46:$G46,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D46,bubbleソート導入後１!$B46:$G46,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E46,bubbleソート導入後１!$B46:$G46,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F46,bubbleソート導入後１!$B46:$G46,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G46,bubbleソート導入後１!$B46:$G46,1)</f>
+        <v>2</v>
+      </c>
       <c r="I46">
-        <v>0.2</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>5</v>
       </c>
+      <c r="B47">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B47,bubbleソート導入後１!$B47:$G47,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C47">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C47,bubbleソート導入後１!$B47:$G47,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D47,bubbleソート導入後１!$B47:$G47,1)</f>
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E47,bubbleソート導入後１!$B47:$G47,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F47">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F47,bubbleソート導入後１!$B47:$G47,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G47">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G47,bubbleソート導入後１!$B47:$G47,1)</f>
+        <v>4</v>
+      </c>
       <c r="I47">
-        <v>0.86699999999999999</v>
+        <v>0.33300000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/最小値とランクの相関.xlsx
+++ b/最小値とランクの相関.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hanawayuki/Documents/SAEA_B4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E899EC-8307-CC45-8B53-AD897E828D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F47F07-A485-A541-9821-79994D70F12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7660" yWindow="2520" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{636FA27B-60BF-D049-9CB1-3DDDB0DCED5C}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" activeTab="3" xr2:uid="{636FA27B-60BF-D049-9CB1-3DDDB0DCED5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -121,6 +121,13 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -145,7 +152,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -156,6 +163,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2094,8 +2104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E7DD38-EEBD-E74D-8C07-A85AE20818A3}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3295,8 +3305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AAF738-A955-FB4A-8CC9-957E794BFCC3}">
   <dimension ref="A1:R47"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47:G47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -3332,26 +3342,26 @@
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <v>5211800</v>
+        <v>4963800</v>
       </c>
       <c r="C2" s="1">
-        <v>1194000</v>
+        <v>1137400</v>
       </c>
       <c r="D2" s="1">
-        <v>678970</v>
+        <v>647450</v>
       </c>
       <c r="E2" s="1">
-        <v>222120</v>
+        <v>212190</v>
       </c>
       <c r="F2">
-        <v>71082</v>
+        <v>68386</v>
       </c>
       <c r="G2" s="1">
-        <v>3034600</v>
+        <v>2892300</v>
       </c>
       <c r="I2">
         <f>CORREL($B$1:$G$1,B2:G2)</f>
-        <v>-0.39082283749561014</v>
+        <v>-0.3905015111898576</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3359,26 +3369,26 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23476</v>
+        <v>23206</v>
       </c>
       <c r="C3">
-        <v>25399</v>
+        <v>25630</v>
       </c>
       <c r="D3">
-        <v>25457</v>
+        <v>25635</v>
       </c>
       <c r="E3">
-        <v>24436</v>
+        <v>24050</v>
       </c>
       <c r="F3">
-        <v>20721</v>
+        <v>22153</v>
       </c>
       <c r="G3">
-        <v>23038</v>
+        <v>22563</v>
       </c>
       <c r="I3">
         <f>CORREL($B$1:$G$1,B3:G3)</f>
-        <v>-0.51755595410811417</v>
+        <v>-0.54053859842549545</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3386,26 +3396,26 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>767.78</v>
+        <v>758.51</v>
       </c>
       <c r="C4">
-        <v>659.74</v>
+        <v>655.49</v>
       </c>
       <c r="D4">
-        <v>668.67</v>
+        <v>657.58</v>
       </c>
       <c r="E4">
-        <v>593.84</v>
+        <v>605.62</v>
       </c>
       <c r="F4">
-        <v>593.16999999999996</v>
+        <v>588.09</v>
       </c>
       <c r="G4">
-        <v>616.98</v>
+        <v>622.16</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I31" si="0">CORREL($B$1:$G$1,B4:G4)</f>
-        <v>-0.83281547967854896</v>
+        <v>-0.82436524611057138</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3416,23 +3426,23 @@
         <v>803.46</v>
       </c>
       <c r="C5">
-        <v>802.83</v>
+        <v>802.73</v>
       </c>
       <c r="D5">
         <v>802.66</v>
       </c>
       <c r="E5">
-        <v>802.81</v>
+        <v>802.85</v>
       </c>
       <c r="F5">
-        <v>802.59</v>
+        <v>802.54</v>
       </c>
       <c r="G5">
-        <v>802.74</v>
+        <v>802.78</v>
       </c>
       <c r="I5">
         <f>CORREL($B$1:$G$1,B5:G5)</f>
-        <v>-0.71209953607587184</v>
+        <v>-0.62500829287687687</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3443,10 +3453,10 @@
         <v>1619.3</v>
       </c>
       <c r="C6">
-        <v>1619.3</v>
+        <v>1619.2</v>
       </c>
       <c r="D6">
-        <v>1618.7</v>
+        <v>1618.6</v>
       </c>
       <c r="E6">
         <v>1618.6</v>
@@ -3459,7 +3469,7 @@
       </c>
       <c r="I6">
         <f>CORREL($B$1:$G$1,B6:G6)</f>
-        <v>-0.96335964810974739</v>
+        <v>-0.96204036783384272</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3467,26 +3477,26 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1807.1</v>
+        <v>1808.9</v>
       </c>
       <c r="C7">
-        <v>1709.4</v>
+        <v>1719.4</v>
       </c>
       <c r="D7">
-        <v>1786.6</v>
+        <v>1792.5</v>
       </c>
       <c r="E7">
-        <v>1717.1</v>
+        <v>1726.5</v>
       </c>
       <c r="F7">
-        <v>1712.2</v>
+        <v>1702.6</v>
       </c>
       <c r="G7">
-        <v>1684.7</v>
+        <v>1695.2</v>
       </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>-0.73816594380005562</v>
+        <v>-0.76297714186807197</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3494,26 +3504,26 @@
         <v>6</v>
       </c>
       <c r="B10" s="1">
-        <v>613300000</v>
+        <v>601110000</v>
       </c>
       <c r="C10" s="1">
-        <v>364890000</v>
+        <v>350060000</v>
       </c>
       <c r="D10" s="1">
-        <v>181750000</v>
+        <v>178510000</v>
       </c>
       <c r="E10" s="1">
-        <v>122020000</v>
+        <v>125510000</v>
       </c>
       <c r="F10" s="1">
-        <v>135550000</v>
+        <v>134900000</v>
       </c>
       <c r="G10" s="1">
-        <v>91460000</v>
+        <v>98882000</v>
       </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>-0.88737830596870593</v>
+        <v>-0.88017666779884562</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3521,26 +3531,26 @@
         <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>112600</v>
+        <v>112490</v>
       </c>
       <c r="C11" s="1">
-        <v>108240</v>
+        <v>107240</v>
       </c>
       <c r="D11" s="1">
-        <v>107400</v>
+        <v>107690</v>
       </c>
       <c r="E11" s="1">
-        <v>107150</v>
+        <v>107670</v>
       </c>
       <c r="F11" s="1">
-        <v>101260</v>
+        <v>100250</v>
       </c>
       <c r="G11" s="1">
-        <v>105160</v>
+        <v>106090</v>
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>-0.83769694617603951</v>
+        <v>-0.71962880046175626</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3548,26 +3558,26 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>5766.1</v>
+        <v>5680.3</v>
       </c>
       <c r="C12">
-        <v>4679.7</v>
+        <v>4670.7</v>
       </c>
       <c r="D12">
-        <v>4598.7</v>
+        <v>4574.7</v>
       </c>
       <c r="E12">
-        <v>4526.6000000000004</v>
+        <v>4563.3999999999996</v>
       </c>
       <c r="F12">
-        <v>3883.7</v>
+        <v>3857.9</v>
       </c>
       <c r="G12">
-        <v>4010.3</v>
+        <v>3994</v>
       </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>-0.899695194097891</v>
+        <v>-0.90159849895974364</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3575,26 +3585,26 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>900.74</v>
+        <v>898.15</v>
       </c>
       <c r="C13">
-        <v>869.12</v>
+        <v>867.27</v>
       </c>
       <c r="D13">
-        <v>840.65</v>
+        <v>844.15</v>
       </c>
       <c r="E13">
-        <v>845.62</v>
+        <v>844.91</v>
       </c>
       <c r="F13">
-        <v>848.55</v>
+        <v>847.99</v>
       </c>
       <c r="G13">
-        <v>844.34</v>
+        <v>843.94</v>
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>-0.78202348810433642</v>
+        <v>-0.80755264510329294</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3602,26 +3612,26 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>1677.3</v>
+        <v>1678</v>
       </c>
       <c r="C14">
-        <v>1661.9</v>
+        <v>1661.7</v>
       </c>
       <c r="D14">
-        <v>1658.6</v>
+        <v>1658.2</v>
       </c>
       <c r="E14">
-        <v>1655.2</v>
+        <v>1655.7</v>
       </c>
       <c r="F14">
-        <v>1657.7</v>
+        <v>1658.1</v>
       </c>
       <c r="G14">
-        <v>1654.2</v>
+        <v>1654.5</v>
       </c>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>-0.82513714083538037</v>
+        <v>-0.80616224362011724</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3629,26 +3639,26 @@
         <v>5</v>
       </c>
       <c r="B15">
-        <v>2248.5</v>
+        <v>2249.9</v>
       </c>
       <c r="C15">
-        <v>2168.1999999999998</v>
+        <v>2165.8000000000002</v>
       </c>
       <c r="D15">
-        <v>2149.6</v>
+        <v>2149</v>
       </c>
       <c r="E15">
-        <v>2163.4</v>
+        <v>2160.1</v>
       </c>
       <c r="F15">
-        <v>2140.1</v>
+        <v>2138.1</v>
       </c>
       <c r="G15">
-        <v>2185.1</v>
+        <v>2183.3000000000002</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>-0.53323085881881971</v>
+        <v>-0.54050339102200906</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3660,24 +3670,39 @@
       <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="I18" t="e">
+      <c r="B18" s="1">
+        <v>19857000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4698600</v>
+      </c>
+      <c r="D18" s="1">
+        <v>655550</v>
+      </c>
+      <c r="E18">
+        <v>60851</v>
+      </c>
+      <c r="F18">
+        <v>9457.2999999999993</v>
+      </c>
+      <c r="G18">
+        <v>8795.4</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.77296143394017203</v>
       </c>
       <c r="K18" t="str">
         <f>IF(B2 &gt; B18, "+", IF(B2 &lt; B18, "-", "同じ"))</f>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="L18" t="str">
         <f t="shared" ref="L18:P23" si="1">IF(C2 &gt; C18, "+", IF(C2 &lt; C18, "-", "同じ"))</f>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="1"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="N18" t="str">
         <f t="shared" si="1"/>
@@ -3699,13 +3724,31 @@
       <c r="A19" t="s">
         <v>1</v>
       </c>
-      <c r="I19" t="e">
+      <c r="B19" s="4">
+        <v>26730</v>
+      </c>
+      <c r="C19" s="4">
+        <v>22696</v>
+      </c>
+      <c r="D19" s="4">
+        <v>20199</v>
+      </c>
+      <c r="E19" s="4">
+        <v>17588</v>
+      </c>
+      <c r="F19" s="4">
+        <v>15303</v>
+      </c>
+      <c r="G19" s="4">
+        <v>234.29</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.91549747064565512</v>
       </c>
       <c r="K19" t="str">
         <f t="shared" ref="K19:K23" si="2">IF(B3 &gt; B19, "+", IF(B3 &lt; B19, "-", "同じ"))</f>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="L19" t="str">
         <f t="shared" si="1"/>
@@ -3732,29 +3775,47 @@
       <c r="A20" t="s">
         <v>2</v>
       </c>
-      <c r="I20" t="e">
+      <c r="B20">
+        <v>1688.4</v>
+      </c>
+      <c r="C20">
+        <v>1488</v>
+      </c>
+      <c r="D20">
+        <v>1357.2</v>
+      </c>
+      <c r="E20">
+        <v>1193</v>
+      </c>
+      <c r="F20">
+        <v>901.53</v>
+      </c>
+      <c r="G20">
+        <v>404.6</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.96698688705082048</v>
       </c>
       <c r="K20" t="str">
         <f t="shared" si="2"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="L20" t="str">
         <f t="shared" si="1"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="1"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="N20" t="str">
         <f t="shared" si="1"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="O20" t="str">
         <f t="shared" si="1"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="P20" t="str">
         <f t="shared" si="1"/>
@@ -3765,29 +3826,47 @@
       <c r="A21" t="s">
         <v>3</v>
       </c>
-      <c r="I21" t="e">
+      <c r="B21">
+        <v>804.91</v>
+      </c>
+      <c r="C21">
+        <v>804.16</v>
+      </c>
+      <c r="D21">
+        <v>803.54</v>
+      </c>
+      <c r="E21">
+        <v>803.35</v>
+      </c>
+      <c r="F21">
+        <v>802.62</v>
+      </c>
+      <c r="G21">
+        <v>801.03</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.96449144138355469</v>
       </c>
       <c r="K21" t="str">
         <f t="shared" si="2"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="L21" t="str">
         <f t="shared" si="1"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="1"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="N21" t="str">
         <f t="shared" si="1"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="O21" t="str">
         <f t="shared" si="1"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="P21" t="str">
         <f t="shared" si="1"/>
@@ -3798,17 +3877,35 @@
       <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="I22" t="e">
+      <c r="B22">
+        <v>1623.9</v>
+      </c>
+      <c r="C22">
+        <v>1620.4</v>
+      </c>
+      <c r="D22">
+        <v>1618.5</v>
+      </c>
+      <c r="E22">
+        <v>1617.4</v>
+      </c>
+      <c r="F22">
+        <v>1616.5</v>
+      </c>
+      <c r="G22">
+        <v>1616.4</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.9315054402628532</v>
       </c>
       <c r="K22" t="str">
         <f t="shared" si="2"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="L22" t="str">
         <f t="shared" si="1"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="1"/>
@@ -3831,17 +3928,35 @@
       <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="I23" t="e">
+      <c r="B23">
+        <v>1856.7</v>
+      </c>
+      <c r="C23">
+        <v>1740.6</v>
+      </c>
+      <c r="D23">
+        <v>1678.8</v>
+      </c>
+      <c r="E23">
+        <v>1592.1</v>
+      </c>
+      <c r="F23">
+        <v>1550.3</v>
+      </c>
+      <c r="G23">
+        <v>1535.8</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.97054743665647103</v>
       </c>
       <c r="K23" t="str">
         <f t="shared" si="2"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="L23" t="str">
         <f t="shared" si="1"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="1"/>
@@ -3864,32 +3979,44 @@
       <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="B26" s="1">
+        <v>2766200000</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1318900000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>637330000</v>
+      </c>
+      <c r="E26" s="1">
+        <v>265160000</v>
+      </c>
+      <c r="F26" s="1">
+        <v>81196000</v>
+      </c>
+      <c r="G26" s="1">
+        <v>44229000</v>
+      </c>
       <c r="H26" s="1"/>
-      <c r="I26" t="e">
+      <c r="I26">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.90025327163556079</v>
       </c>
       <c r="K26" t="str">
         <f t="shared" ref="K26:P31" si="3">IF(B10 &gt; B26, "+", IF(B10 &lt; B26, "-", "同じ"))</f>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="L26" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="N26" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="O26" t="str">
         <f t="shared" si="3"/>
@@ -3904,19 +4031,35 @@
       <c r="A27" t="s">
         <v>1</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="I27" t="e">
+      <c r="B27" s="1">
+        <v>114900</v>
+      </c>
+      <c r="C27" s="1">
+        <v>113930</v>
+      </c>
+      <c r="D27">
+        <v>97049</v>
+      </c>
+      <c r="E27">
+        <v>94693</v>
+      </c>
+      <c r="F27">
+        <v>84630</v>
+      </c>
+      <c r="G27">
+        <v>694.59</v>
+      </c>
+      <c r="I27">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.82969668449988931</v>
       </c>
       <c r="K27" t="str">
         <f>IF(B11 &gt; B27, "+", IF(B11 &lt; B27, "-", "同じ"))</f>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="L27" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="3"/>
@@ -3939,29 +4082,47 @@
       <c r="A28" t="s">
         <v>2</v>
       </c>
-      <c r="I28" t="e">
+      <c r="B28">
+        <v>7360.1</v>
+      </c>
+      <c r="C28">
+        <v>7250</v>
+      </c>
+      <c r="D28">
+        <v>6910.9</v>
+      </c>
+      <c r="E28">
+        <v>6498</v>
+      </c>
+      <c r="F28">
+        <v>5956.3</v>
+      </c>
+      <c r="G28">
+        <v>1219.8</v>
+      </c>
+      <c r="I28">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.8015019848545174</v>
       </c>
       <c r="K28" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="L28" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="N28" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="O28" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="P28" t="str">
         <f t="shared" si="3"/>
@@ -3972,21 +4133,39 @@
       <c r="A29" t="s">
         <v>3</v>
       </c>
-      <c r="I29" t="e">
+      <c r="B29">
+        <v>10265</v>
+      </c>
+      <c r="C29">
+        <v>1694.6</v>
+      </c>
+      <c r="D29">
+        <v>945.7</v>
+      </c>
+      <c r="E29">
+        <v>839.22</v>
+      </c>
+      <c r="F29">
+        <v>826.13</v>
+      </c>
+      <c r="G29">
+        <v>810.85</v>
+      </c>
+      <c r="I29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.70528235506095338</v>
       </c>
       <c r="K29" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="L29" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="N29" t="str">
         <f t="shared" si="3"/>
@@ -4005,25 +4184,43 @@
       <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="I30" t="e">
+      <c r="B30">
+        <v>1740</v>
+      </c>
+      <c r="C30">
+        <v>1700.4</v>
+      </c>
+      <c r="D30">
+        <v>1674.8</v>
+      </c>
+      <c r="E30">
+        <v>1656.5</v>
+      </c>
+      <c r="F30">
+        <v>1646</v>
+      </c>
+      <c r="G30">
+        <v>1636.5</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.96261159898748594</v>
       </c>
       <c r="K30" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="L30" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="N30" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="O30" t="str">
         <f t="shared" si="3"/>
@@ -4038,25 +4235,43 @@
       <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="I31" t="e">
+      <c r="B31">
+        <v>2559.1</v>
+      </c>
+      <c r="C31">
+        <v>2417.1999999999998</v>
+      </c>
+      <c r="D31">
+        <v>2326.6999999999998</v>
+      </c>
+      <c r="E31">
+        <v>2199</v>
+      </c>
+      <c r="F31">
+        <v>2071.9</v>
+      </c>
+      <c r="G31">
+        <v>1992.6</v>
+      </c>
+      <c r="I31">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-0.99761092901986193</v>
       </c>
       <c r="K31" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="L31" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="M31" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="N31" t="str">
         <f t="shared" si="3"/>
-        <v>+</v>
+        <v>-</v>
       </c>
       <c r="O31" t="str">
         <f t="shared" si="3"/>
@@ -4077,26 +4292,26 @@
         <v>0</v>
       </c>
       <c r="B34" s="1">
-        <v>8557200000</v>
+        <v>8818300000</v>
       </c>
       <c r="C34">
-        <v>8589.5</v>
+        <v>8671.9</v>
       </c>
       <c r="D34">
-        <v>7452</v>
+        <v>8135.5</v>
       </c>
       <c r="E34">
-        <v>6574.5</v>
+        <v>6588.3</v>
       </c>
       <c r="F34">
-        <v>8110.6</v>
+        <v>8109.8</v>
       </c>
       <c r="G34">
-        <v>6578</v>
+        <v>6881.4</v>
       </c>
       <c r="I34">
         <f t="shared" ref="I34:I39" si="4">CORREL($B$1:$G$1,B34:G34)</f>
-        <v>-0.65465377366307254</v>
+        <v>-0.6546537778098489</v>
       </c>
       <c r="K34" t="str">
         <f>IF(B2 &gt; B34, "+", IF(B2 &lt; B34, "-", "同じ"))</f>
@@ -4134,26 +4349,26 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>65812</v>
+        <v>65078</v>
       </c>
       <c r="C35">
-        <v>8768.7000000000007</v>
+        <v>8678</v>
       </c>
       <c r="D35">
-        <v>1524.2</v>
+        <v>1481.4</v>
       </c>
       <c r="E35">
-        <v>1197.5999999999999</v>
+        <v>1166.7</v>
       </c>
       <c r="F35">
-        <v>1064.7</v>
+        <v>1064.2</v>
       </c>
       <c r="G35">
-        <v>1139.8</v>
+        <v>1158</v>
       </c>
       <c r="I35">
         <f t="shared" si="4"/>
-        <v>-0.71501008707830405</v>
+        <v>-0.71465025092912959</v>
       </c>
       <c r="K35" t="str">
         <f t="shared" ref="K35:K39" si="6">IF(B3 &gt; B35, "+", IF(B3 &lt; B35, "-", "同じ"))</f>
@@ -4188,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="B36">
-        <v>2486.5</v>
+        <v>2483.3000000000002</v>
       </c>
       <c r="C36">
         <v>400.29</v>
@@ -4207,7 +4422,7 @@
       </c>
       <c r="I36">
         <f t="shared" si="4"/>
-        <v>-0.65473022483329535</v>
+        <v>-0.65473034241839456</v>
       </c>
       <c r="K36" t="str">
         <f t="shared" si="6"/>
@@ -4239,26 +4454,26 @@
         <v>3</v>
       </c>
       <c r="B37">
-        <v>29459</v>
+        <v>28117</v>
       </c>
       <c r="C37">
-        <v>801.35</v>
+        <v>801.36</v>
       </c>
       <c r="D37">
-        <v>801.32</v>
+        <v>801.34</v>
       </c>
       <c r="E37">
         <v>801.32</v>
       </c>
       <c r="F37">
-        <v>801.4</v>
+        <v>801.36</v>
       </c>
       <c r="G37">
-        <v>801.28</v>
+        <v>801.32</v>
       </c>
       <c r="I37">
         <f t="shared" si="4"/>
-        <v>-0.65465421895847098</v>
+        <v>-0.65465424589690124</v>
       </c>
       <c r="K37" t="str">
         <f t="shared" si="6"/>
@@ -4290,26 +4505,26 @@
         <v>4</v>
       </c>
       <c r="B38">
-        <v>2001.2</v>
+        <v>1998.1</v>
       </c>
       <c r="C38">
-        <v>1616.3</v>
+        <v>1616.4</v>
       </c>
       <c r="D38">
         <v>1615.9</v>
       </c>
       <c r="E38">
+        <v>1615.4</v>
+      </c>
+      <c r="F38">
         <v>1615.3</v>
-      </c>
-      <c r="F38">
-        <v>1615.4</v>
       </c>
       <c r="G38">
         <v>1615.3</v>
       </c>
       <c r="I38">
         <f t="shared" si="4"/>
-        <v>-0.65634950203341536</v>
+        <v>-0.65656835558729831</v>
       </c>
       <c r="K38" t="str">
         <f t="shared" si="6"/>
@@ -4341,26 +4556,26 @@
         <v>5</v>
       </c>
       <c r="B39">
-        <v>2088.3000000000002</v>
+        <v>2082.3000000000002</v>
       </c>
       <c r="C39">
-        <v>1657.2</v>
+        <v>1669</v>
       </c>
       <c r="D39">
-        <v>1611.4</v>
+        <v>1606.7</v>
       </c>
       <c r="E39">
-        <v>1557.1</v>
+        <v>1554.9</v>
       </c>
       <c r="F39">
-        <v>1544.6</v>
+        <v>1542.9</v>
       </c>
       <c r="G39">
-        <v>1543.2</v>
+        <v>1541.5</v>
       </c>
       <c r="I39">
         <f t="shared" si="4"/>
-        <v>-0.78895716379842129</v>
+        <v>-0.79895506873297684</v>
       </c>
       <c r="K39" t="str">
         <f t="shared" si="6"/>
@@ -4392,27 +4607,27 @@
         <v>6</v>
       </c>
       <c r="B42" s="1">
-        <v>67224000000</v>
+        <v>66786000000</v>
       </c>
       <c r="C42" s="1">
-        <v>250100000</v>
+        <v>248240000</v>
       </c>
       <c r="D42" s="1">
-        <v>33236000</v>
+        <v>38560000</v>
       </c>
       <c r="E42" s="1">
-        <v>15292000</v>
+        <v>16530000</v>
       </c>
       <c r="F42" s="1">
-        <v>23245000</v>
+        <v>22866000</v>
       </c>
       <c r="G42" s="1">
-        <v>9716800</v>
+        <v>9620500</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42">
         <f t="shared" ref="I42:I47" si="7">CORREL($B$1:$G$1,B42:G42)</f>
-        <v>-0.65656351866447527</v>
+        <v>-0.6565846912981107</v>
       </c>
       <c r="K42" t="str">
         <f>IF(B10 &gt; B42, "+", IF(B10 &lt; B42, "-", "同じ"))</f>
@@ -4447,26 +4662,26 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>98208</v>
+        <v>98209</v>
       </c>
       <c r="C43">
-        <v>34206</v>
+        <v>34541</v>
       </c>
       <c r="D43">
-        <v>13831</v>
+        <v>13873</v>
       </c>
       <c r="E43">
-        <v>9497.9</v>
+        <v>9532.4</v>
       </c>
       <c r="F43">
-        <v>10193</v>
+        <v>10170</v>
       </c>
       <c r="G43">
-        <v>10279</v>
+        <v>10319</v>
       </c>
       <c r="I43">
         <f t="shared" si="7"/>
-        <v>-0.78770229154418281</v>
+        <v>-0.7890463029059559</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" ref="K43:K47" si="9">IF(B11 &gt; B43, "+", IF(B11 &lt; B43, "-", "同じ"))</f>
@@ -4501,26 +4716,26 @@
         <v>2</v>
       </c>
       <c r="B44">
-        <v>8787.7000000000007</v>
+        <v>8804.7999999999993</v>
       </c>
       <c r="C44">
-        <v>1344.6</v>
+        <v>1366.6</v>
       </c>
       <c r="D44">
-        <v>736.5</v>
+        <v>729.23</v>
       </c>
       <c r="E44">
-        <v>555.85</v>
+        <v>552.47</v>
       </c>
       <c r="F44">
-        <v>476.82</v>
+        <v>482.41</v>
       </c>
       <c r="G44">
-        <v>491.3</v>
+        <v>490.83</v>
       </c>
       <c r="I44">
         <f t="shared" si="7"/>
-        <v>-0.71500555263619348</v>
+        <v>-0.71577183724042837</v>
       </c>
       <c r="K44" t="str">
         <f t="shared" si="9"/>
@@ -4552,26 +4767,26 @@
         <v>3</v>
       </c>
       <c r="B45" s="1">
-        <v>34937000</v>
+        <v>34530000</v>
       </c>
       <c r="C45">
-        <v>868.51</v>
+        <v>867.26</v>
       </c>
       <c r="D45">
-        <v>820.94</v>
+        <v>821.22</v>
       </c>
       <c r="E45">
-        <v>815.67</v>
+        <v>817.18</v>
       </c>
       <c r="F45">
-        <v>815.87</v>
+        <v>815.9</v>
       </c>
       <c r="G45">
-        <v>816.29</v>
+        <v>816.17</v>
       </c>
       <c r="I45">
         <f t="shared" si="7"/>
-        <v>-0.65465449153130728</v>
+        <v>-0.65465448596311371</v>
       </c>
       <c r="K45" t="str">
         <f t="shared" si="9"/>
@@ -4603,26 +4818,26 @@
         <v>4</v>
       </c>
       <c r="B46">
-        <v>2780.5</v>
+        <v>2782.3</v>
       </c>
       <c r="C46">
-        <v>1645.5</v>
+        <v>1645.3</v>
       </c>
       <c r="D46">
-        <v>1634.7</v>
+        <v>1635.1</v>
       </c>
       <c r="E46">
-        <v>1633.1</v>
+        <v>1632.9</v>
       </c>
       <c r="F46">
-        <v>1631.9</v>
+        <v>1631.8</v>
       </c>
       <c r="G46">
-        <v>1632</v>
+        <v>1632.1</v>
       </c>
       <c r="I46">
         <f t="shared" si="7"/>
-        <v>-0.66142874424326592</v>
+        <v>-0.66139636795184809</v>
       </c>
       <c r="K46" t="str">
         <f t="shared" si="9"/>
@@ -4654,26 +4869,26 @@
         <v>5</v>
       </c>
       <c r="B47">
-        <v>3254.3</v>
+        <v>3253.5</v>
       </c>
       <c r="C47">
-        <v>2132.6999999999998</v>
+        <v>2132.8000000000002</v>
       </c>
       <c r="D47">
-        <v>2058.5</v>
+        <v>2063.4</v>
       </c>
       <c r="E47">
-        <v>2078</v>
+        <v>2078.9</v>
       </c>
       <c r="F47">
-        <v>2061.1999999999998</v>
+        <v>2062.4</v>
       </c>
       <c r="G47">
-        <v>2104.9</v>
+        <v>2104.4</v>
       </c>
       <c r="I47">
         <f t="shared" si="7"/>
-        <v>-0.66535978933607387</v>
+        <v>-0.66657899636923257</v>
       </c>
       <c r="K47" t="str">
         <f t="shared" si="9"/>
@@ -4710,8 +4925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16FC4387-EE7D-F04F-B21F-41D3A426B044}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4845,7 +5060,7 @@
       </c>
       <c r="C5">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!C5,bubbleソート導入後１!$B5:$G5,1)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!D5,bubbleソート導入後１!$B5:$G5,1)</f>
@@ -4853,7 +5068,7 @@
       </c>
       <c r="E5">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!E5,bubbleソート導入後１!$B5:$G5,1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!F5,bubbleソート導入後１!$B5:$G5,1)</f>
@@ -4861,10 +5076,10 @@
       </c>
       <c r="G5">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!G5,bubbleソート導入後１!$B5:$G5,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>0.6</v>
+        <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -4873,7 +5088,7 @@
       </c>
       <c r="B6">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!B6,bubbleソート導入後１!$B6:$G6,1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!C6,bubbleソート導入後１!$B6:$G6,1)</f>
@@ -4881,7 +5096,7 @@
       </c>
       <c r="D6">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!D6,bubbleソート導入後１!$B6:$G6,1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!E6,bubbleソート導入後１!$B6:$G6,1)</f>
@@ -4896,7 +5111,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>0.82799999999999996</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4909,7 +5124,7 @@
       </c>
       <c r="C7">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!C7,bubbleソート導入後１!$B7:$G7,1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!D7,bubbleソート導入後１!$B7:$G7,1)</f>
@@ -4921,14 +5136,14 @@
       </c>
       <c r="F7">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!F7,bubbleソート導入後１!$B7:$G7,1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!G7,bubbleソート導入後１!$B7:$G7,1)</f>
         <v>1</v>
       </c>
       <c r="I7">
-        <v>0.6</v>
+        <v>0.73299999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4993,15 +5208,15 @@
       </c>
       <c r="C11">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!C11,bubbleソート導入後１!$B11:$G11,1)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!D11,bubbleソート導入後１!$B11:$G11,1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!E11,bubbleソート導入後１!$B11:$G11,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!F11,bubbleソート導入後１!$B11:$G11,1)</f>
@@ -5012,7 +5227,7 @@
         <v>2</v>
       </c>
       <c r="I11">
-        <v>0.86599999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5061,7 +5276,7 @@
       </c>
       <c r="D13">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!D13,bubbleソート導入後１!$B13:$G13,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!E13,bubbleソート導入後１!$B13:$G13,1)</f>
@@ -5073,10 +5288,10 @@
       </c>
       <c r="G13">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!G13,bubbleソート導入後１!$B13:$G13,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0.46600000000000003</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5152,6 +5367,30 @@
       <c r="A18" t="s">
         <v>0</v>
       </c>
+      <c r="B18">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B18,bubbleソート導入後１!$B18:$G18,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C18,bubbleソート導入後１!$B18:$G18,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D18,bubbleソート導入後１!$B18:$G18,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E18,bubbleソート導入後１!$B18:$G18,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F18,bubbleソート導入後１!$B18:$G18,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G18,bubbleソート導入後１!$B18:$G18,1)</f>
+        <v>1</v>
+      </c>
       <c r="I18">
         <v>1</v>
       </c>
@@ -5160,6 +5399,30 @@
       <c r="A19" t="s">
         <v>1</v>
       </c>
+      <c r="B19">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B19,bubbleソート導入後１!$B19:$G19,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C19">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C19,bubbleソート導入後１!$B19:$G19,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D19,bubbleソート導入後１!$B19:$G19,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E19,bubbleソート導入後１!$B19:$G19,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F19,bubbleソート導入後１!$B19:$G19,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G19,bubbleソート導入後１!$B19:$G19,1)</f>
+        <v>1</v>
+      </c>
       <c r="I19">
         <v>1</v>
       </c>
@@ -5168,6 +5431,30 @@
       <c r="A20" t="s">
         <v>2</v>
       </c>
+      <c r="B20">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B20,bubbleソート導入後１!$B20:$G20,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C20,bubbleソート導入後１!$B20:$G20,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D20,bubbleソート導入後１!$B20:$G20,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E20,bubbleソート導入後１!$B20:$G20,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F20,bubbleソート導入後１!$B20:$G20,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G20,bubbleソート導入後１!$B20:$G20,1)</f>
+        <v>1</v>
+      </c>
       <c r="I20">
         <v>1</v>
       </c>
@@ -5176,6 +5463,30 @@
       <c r="A21" t="s">
         <v>3</v>
       </c>
+      <c r="B21">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B21,bubbleソート導入後１!$B21:$G21,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C21,bubbleソート導入後１!$B21:$G21,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D21,bubbleソート導入後１!$B21:$G21,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E21,bubbleソート導入後１!$B21:$G21,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F21,bubbleソート導入後１!$B21:$G21,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G21,bubbleソート導入後１!$B21:$G21,1)</f>
+        <v>1</v>
+      </c>
       <c r="I21">
         <v>1</v>
       </c>
@@ -5184,6 +5495,30 @@
       <c r="A22" t="s">
         <v>4</v>
       </c>
+      <c r="B22">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B22,bubbleソート導入後１!$B22:$G22,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C22,bubbleソート導入後１!$B22:$G22,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D22,bubbleソート導入後１!$B22:$G22,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E22,bubbleソート導入後１!$B22:$G22,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F22,bubbleソート導入後１!$B22:$G22,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G22,bubbleソート導入後１!$B22:$G22,1)</f>
+        <v>1</v>
+      </c>
       <c r="I22">
         <v>1</v>
       </c>
@@ -5192,6 +5527,30 @@
       <c r="A23" t="s">
         <v>5</v>
       </c>
+      <c r="B23">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B23,bubbleソート導入後１!$B23:$G23,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C23,bubbleソート導入後１!$B23:$G23,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D23,bubbleソート導入後１!$B23:$G23,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E23,bubbleソート導入後１!$B23:$G23,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F23,bubbleソート導入後１!$B23:$G23,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G23,bubbleソート導入後１!$B23:$G23,1)</f>
+        <v>1</v>
+      </c>
       <c r="I23">
         <v>1</v>
       </c>
@@ -5200,6 +5559,30 @@
       <c r="A26" t="s">
         <v>6</v>
       </c>
+      <c r="B26">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B26,bubbleソート導入後１!$B26:$G26,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C26,bubbleソート導入後１!$B26:$G26,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D26,bubbleソート導入後１!$B26:$G26,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E26,bubbleソート導入後１!$B26:$G26,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F26,bubbleソート導入後１!$B26:$G26,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G26,bubbleソート導入後１!$B26:$G26,1)</f>
+        <v>1</v>
+      </c>
       <c r="I26">
         <v>1</v>
       </c>
@@ -5208,6 +5591,30 @@
       <c r="A27" t="s">
         <v>1</v>
       </c>
+      <c r="B27">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B27,bubbleソート導入後１!$B27:$G27,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C27,bubbleソート導入後１!$B27:$G27,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D27,bubbleソート導入後１!$B27:$G27,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E27,bubbleソート導入後１!$B27:$G27,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F27,bubbleソート導入後１!$B27:$G27,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G27,bubbleソート導入後１!$B27:$G27,1)</f>
+        <v>1</v>
+      </c>
       <c r="I27">
         <v>1</v>
       </c>
@@ -5216,6 +5623,30 @@
       <c r="A28" t="s">
         <v>2</v>
       </c>
+      <c r="B28">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B28,bubbleソート導入後１!$B28:$G28,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C28,bubbleソート導入後１!$B28:$G28,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D28,bubbleソート導入後１!$B28:$G28,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E28,bubbleソート導入後１!$B28:$G28,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F28,bubbleソート導入後１!$B28:$G28,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G28,bubbleソート導入後１!$B28:$G28,1)</f>
+        <v>1</v>
+      </c>
       <c r="I28">
         <v>1</v>
       </c>
@@ -5224,6 +5655,30 @@
       <c r="A29" t="s">
         <v>3</v>
       </c>
+      <c r="B29">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B29,bubbleソート導入後１!$B29:$G29,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C29,bubbleソート導入後１!$B29:$G29,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D29,bubbleソート導入後１!$B29:$G29,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E29,bubbleソート導入後１!$B29:$G29,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F29,bubbleソート導入後１!$B29:$G29,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G29,bubbleソート導入後１!$B29:$G29,1)</f>
+        <v>1</v>
+      </c>
       <c r="I29">
         <v>1</v>
       </c>
@@ -5232,6 +5687,30 @@
       <c r="A30" t="s">
         <v>4</v>
       </c>
+      <c r="B30">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B30,bubbleソート導入後１!$B30:$G30,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C30,bubbleソート導入後１!$B30:$G30,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D30,bubbleソート導入後１!$B30:$G30,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E30,bubbleソート導入後１!$B30:$G30,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F30,bubbleソート導入後１!$B30:$G30,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G30,bubbleソート導入後１!$B30:$G30,1)</f>
+        <v>1</v>
+      </c>
       <c r="I30">
         <v>1</v>
       </c>
@@ -5239,6 +5718,30 @@
     <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>5</v>
+      </c>
+      <c r="B31">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!B31,bubbleソート導入後１!$B31:$G31,1)</f>
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!C31,bubbleソート導入後１!$B31:$G31,1)</f>
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!D31,bubbleソート導入後１!$B31:$G31,1)</f>
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!E31,bubbleソート導入後１!$B31:$G31,1)</f>
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!F31,bubbleソート導入後１!$B31:$G31,1)</f>
+        <v>2</v>
+      </c>
+      <c r="G31">
+        <f>_xlfn.RANK.EQ(bubbleソート導入後１!G31,bubbleソート導入後１!$B31:$G31,1)</f>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -5263,7 +5766,7 @@
       </c>
       <c r="D34">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!D34,bubbleソート導入後１!$B34:$G34,1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E34">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!E34,bubbleソート導入後１!$B34:$G34,1)</f>
@@ -5271,14 +5774,14 @@
       </c>
       <c r="F34">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!F34,bubbleソート導入後１!$B34:$G34,1)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!G34,bubbleソート導入後１!$B34:$G34,1)</f>
         <v>2</v>
       </c>
       <c r="I34">
-        <v>0.6</v>
+        <v>0.73299999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -5359,22 +5862,22 @@
       </c>
       <c r="D37">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!D37,bubbleソート導入後１!$B37:$G37,1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!E37,bubbleソート導入後１!$B37:$G37,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!F37,bubbleソート導入後１!$B37:$G37,1)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G37">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!G37,bubbleソート導入後１!$B37:$G37,1)</f>
         <v>1</v>
       </c>
       <c r="I37">
-        <v>0.55200000000000005</v>
+        <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -5395,18 +5898,18 @@
       </c>
       <c r="E38">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!E38,bubbleソート導入後１!$B38:$G38,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!F38,bubbleソート導入後１!$B38:$G38,1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!G38,bubbleソート導入後１!$B38:$G38,1)</f>
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0.82799999999999996</v>
+        <v>0.96599999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -5555,18 +6058,18 @@
       </c>
       <c r="E45">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!E45,bubbleソート導入後１!$B45:$G45,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!F45,bubbleソート導入後１!$B45:$G45,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!G45,bubbleソート導入後１!$B45:$G45,1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>0.6</v>
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -5615,7 +6118,7 @@
       </c>
       <c r="D47">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!D47,bubbleソート導入後１!$B47:$G47,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!E47,bubbleソート導入後１!$B47:$G47,1)</f>
@@ -5623,14 +6126,14 @@
       </c>
       <c r="F47">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!F47,bubbleソート導入後１!$B47:$G47,1)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G47">
         <f>_xlfn.RANK.EQ(bubbleソート導入後１!G47,bubbleソート導入後１!$B47:$G47,1)</f>
         <v>4</v>
       </c>
       <c r="I47">
-        <v>0.33300000000000002</v>
+        <v>0.46600000000000003</v>
       </c>
     </row>
   </sheetData>
